--- a/DAC-Trade-Routes.xlsx
+++ b/DAC-Trade-Routes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Modding\Deeds-Modsys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E14762-B66E-4962-869E-527AFF5AEACD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C53924-7202-4A0B-BAAA-9472B4906B6E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB6EF4D4-1AEA-4FCE-ACC1-EED0352EA2B9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="168">
   <si>
     <t>Bourges</t>
   </si>
@@ -545,7 +545,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +567,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -601,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -635,6 +642,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -642,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -652,6 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -976,19 +999,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8520B1-65C2-439C-AB00-6E2C3679E3C3}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" hidden="1" customWidth="1"/>
-    <col min="3" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" hidden="1" customWidth="1"/>
+    <col min="3" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>161</v>
       </c>
@@ -1042,22 +1065,40 @@
       </c>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1065,16 +1106,22 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1088,18 +1135,28 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1111,18 +1168,28 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1134,18 +1201,28 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1157,18 +1234,28 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1180,16 +1267,22 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1203,18 +1296,28 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1226,15 +1329,19 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1249,17 +1356,25 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1272,17 +1387,25 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1295,15 +1418,19 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1318,16 +1445,22 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1341,16 +1474,22 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1364,17 +1503,25 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1387,15 +1534,19 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1410,17 +1561,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1433,7 +1592,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1456,16 +1615,22 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1479,14 +1644,16 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1502,14 +1669,16 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1525,7 +1694,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1548,15 +1717,19 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1571,7 +1744,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1594,15 +1767,19 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1617,17 +1794,25 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1640,14 +1825,16 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1663,14 +1850,16 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1686,14 +1875,16 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1709,22 +1900,40 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -1732,17 +1941,25 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1755,20 +1972,34 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1778,22 +2009,40 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -1801,18 +2050,28 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1824,19 +2083,31 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1847,16 +2118,22 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1870,18 +2147,28 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1893,17 +2180,25 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1916,14 +2211,16 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1939,16 +2236,22 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1962,14 +2265,16 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1985,20 +2290,34 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2008,15 +2327,19 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2031,14 +2354,16 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2054,15 +2379,19 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2077,7 +2406,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -2100,16 +2429,22 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2123,15 +2458,19 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2146,14 +2485,16 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2169,16 +2510,22 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2192,7 +2539,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -2215,39 +2562,65 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2261,16 +2634,22 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2284,17 +2663,25 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -2307,17 +2694,25 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2330,18 +2725,28 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2353,21 +2758,37 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -2376,15 +2797,19 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2399,19 +2824,31 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -2422,17 +2859,25 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -2445,17 +2890,25 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -2468,15 +2921,19 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2491,15 +2948,19 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2514,15 +2975,19 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2537,21 +3002,37 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -2560,21 +3041,37 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -2583,17 +3080,25 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -2606,16 +3111,22 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2629,15 +3140,19 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2652,14 +3167,16 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2675,14 +3192,16 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2698,14 +3217,16 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2722,9 +3243,13 @@
       <c r="Q74" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Towards Which  Town?" prompt="Select the Town this Route will Trade With" sqref="C2:Q74" xr:uid="{2DD45AF0-92A2-45E1-BCB2-53F7191608E7}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Towards Which  Town?" prompt="Select the Town this Route will Trade With" sqref="L2:Q74 C3:K74" xr:uid="{2DD45AF0-92A2-45E1-BCB2-53F7191608E7}">
       <formula1>$A$2:$A$74</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Towards Which  Town?" prompt="Select the Town this Route will Trade With" sqref="C2:K2" xr:uid="{F68A6AA5-55EA-49BF-8D6A-7CA1E39E43E8}">
+      <formula1>$A$2:$A$74</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2740,14 +3265,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>161</v>
       </c>
@@ -2797,45 +3322,45 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="e">
+      <c r="B2" t="str">
         <f>VLOOKUP('Trade Routes'!C2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C2" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="C2" t="str">
         <f>VLOOKUP('Trade Routes'!D2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="e">
+        <v>p_town_2</v>
+      </c>
+      <c r="D2" t="str">
         <f>VLOOKUP('Trade Routes'!E2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="e">
+        <v>p_town_3</v>
+      </c>
+      <c r="E2" t="str">
         <f>VLOOKUP('Trade Routes'!F2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F2" t="e">
+        <v>p_town_19</v>
+      </c>
+      <c r="F2" t="str">
         <f>VLOOKUP('Trade Routes'!G2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G2" t="e">
+        <v>p_town_4</v>
+      </c>
+      <c r="G2" t="str">
         <f>VLOOKUP('Trade Routes'!H2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H2" t="e">
+        <v>p_town_27</v>
+      </c>
+      <c r="H2" t="str">
         <f>VLOOKUP('Trade Routes'!I2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I2" t="e">
+        <v>p_town_6</v>
+      </c>
+      <c r="I2" t="str">
         <f>VLOOKUP('Trade Routes'!J2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J2" t="e">
+        <v>p_town_7</v>
+      </c>
+      <c r="J2" t="str">
         <f>VLOOKUP('Trade Routes'!K2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_15</v>
       </c>
       <c r="K2" t="e">
         <f>VLOOKUP('Trade Routes'!L2,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -2862,21 +3387,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="e">
+      <c r="B3" t="str">
         <f>VLOOKUP('Trade Routes'!C3,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C3" t="e">
+        <v>p_town_22</v>
+      </c>
+      <c r="C3" t="str">
         <f>VLOOKUP('Trade Routes'!D3,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="D3" t="str">
         <f>VLOOKUP('Trade Routes'!E3,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_3</v>
       </c>
       <c r="E3" t="e">
         <f>VLOOKUP('Trade Routes'!F3,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -2927,29 +3452,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4" t="str">
         <f>VLOOKUP('Trade Routes'!C4,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="C4" t="str">
         <f>VLOOKUP('Trade Routes'!D4,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D4" t="e">
+        <v>p_town_6</v>
+      </c>
+      <c r="D4" t="str">
         <f>VLOOKUP('Trade Routes'!E4,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="e">
+        <v>p_town_4</v>
+      </c>
+      <c r="E4" t="str">
         <f>VLOOKUP('Trade Routes'!F4,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" t="e">
+        <v>p_town_19</v>
+      </c>
+      <c r="F4" t="str">
         <f>VLOOKUP('Trade Routes'!G4,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_28</v>
       </c>
       <c r="G4" t="e">
         <f>VLOOKUP('Trade Routes'!H4,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -2992,29 +3517,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5" t="str">
         <f>VLOOKUP('Trade Routes'!C5,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" t="e">
+        <v>p_town_27</v>
+      </c>
+      <c r="C5" t="str">
         <f>VLOOKUP('Trade Routes'!D5,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" t="e">
+        <v>p_town_25</v>
+      </c>
+      <c r="D5" t="str">
         <f>VLOOKUP('Trade Routes'!E5,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="e">
+        <v>p_town_26</v>
+      </c>
+      <c r="E5" t="str">
         <f>VLOOKUP('Trade Routes'!F5,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" t="e">
+        <v>p_town_5</v>
+      </c>
+      <c r="F5" t="str">
         <f>VLOOKUP('Trade Routes'!G5,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_19</v>
       </c>
       <c r="G5" t="e">
         <f>VLOOKUP('Trade Routes'!H5,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3057,29 +3582,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6" t="str">
         <f>VLOOKUP('Trade Routes'!C6,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" t="e">
+        <v>p_town_19</v>
+      </c>
+      <c r="C6" t="str">
         <f>VLOOKUP('Trade Routes'!D6,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" t="e">
+        <v>p_town_4</v>
+      </c>
+      <c r="D6" t="str">
         <f>VLOOKUP('Trade Routes'!E6,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E6" t="e">
+        <v>p_town_27</v>
+      </c>
+      <c r="E6" t="str">
         <f>VLOOKUP('Trade Routes'!F6,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" t="e">
+        <v>p_town_26</v>
+      </c>
+      <c r="F6" t="str">
         <f>VLOOKUP('Trade Routes'!G6,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_67</v>
       </c>
       <c r="G6" t="e">
         <f>VLOOKUP('Trade Routes'!H6,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3122,29 +3647,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="e">
+      <c r="B7" t="str">
         <f>VLOOKUP('Trade Routes'!C7,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" t="e">
+        <v>p_town_7</v>
+      </c>
+      <c r="C7" t="str">
         <f>VLOOKUP('Trade Routes'!D7,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D7" t="e">
+        <v>p_town_10</v>
+      </c>
+      <c r="D7" t="str">
         <f>VLOOKUP('Trade Routes'!E7,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" t="e">
+        <v>p_town_8</v>
+      </c>
+      <c r="E7" t="str">
         <f>VLOOKUP('Trade Routes'!F7,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" t="e">
+        <v>p_town_25</v>
+      </c>
+      <c r="F7" t="str">
         <f>VLOOKUP('Trade Routes'!G7,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_27</v>
       </c>
       <c r="G7" t="e">
         <f>VLOOKUP('Trade Routes'!H7,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3187,21 +3712,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8" t="str">
         <f>VLOOKUP('Trade Routes'!C8,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C8" t="e">
+        <v>p_town_9</v>
+      </c>
+      <c r="C8" t="str">
         <f>VLOOKUP('Trade Routes'!D8,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" t="e">
+        <v>p_town_10</v>
+      </c>
+      <c r="D8" t="str">
         <f>VLOOKUP('Trade Routes'!E8,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_21</v>
       </c>
       <c r="E8" t="e">
         <f>VLOOKUP('Trade Routes'!F8,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3252,29 +3777,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9" t="str">
         <f>VLOOKUP('Trade Routes'!C9,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C9" t="e">
+        <v>p_town_10</v>
+      </c>
+      <c r="C9" t="str">
         <f>VLOOKUP('Trade Routes'!D9,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" t="e">
+        <v>p_town_12</v>
+      </c>
+      <c r="D9" t="str">
         <f>VLOOKUP('Trade Routes'!E9,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" t="e">
+        <v>p_town_11</v>
+      </c>
+      <c r="E9" t="str">
         <f>VLOOKUP('Trade Routes'!F9,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
+        <v>p_town_24</v>
+      </c>
+      <c r="F9" t="str">
         <f>VLOOKUP('Trade Routes'!G9,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_25</v>
       </c>
       <c r="G9" t="e">
         <f>VLOOKUP('Trade Routes'!H9,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3317,17 +3842,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="e">
+      <c r="B10" t="str">
         <f>VLOOKUP('Trade Routes'!C10,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C10" t="e">
+        <v>p_town_18</v>
+      </c>
+      <c r="C10" t="str">
         <f>VLOOKUP('Trade Routes'!D10,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_1</v>
       </c>
       <c r="D10" t="e">
         <f>VLOOKUP('Trade Routes'!E10,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3382,25 +3907,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="e">
+      <c r="B11" t="str">
         <f>VLOOKUP('Trade Routes'!C11,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" t="e">
+        <v>p_town_27</v>
+      </c>
+      <c r="C11" t="str">
         <f>VLOOKUP('Trade Routes'!D11,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" t="e">
+        <v>p_town_9</v>
+      </c>
+      <c r="D11" t="str">
         <f>VLOOKUP('Trade Routes'!E11,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="e">
+        <v>p_town_15</v>
+      </c>
+      <c r="E11" t="str">
         <f>VLOOKUP('Trade Routes'!F11,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_52</v>
       </c>
       <c r="F11" t="e">
         <f>VLOOKUP('Trade Routes'!G11,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3447,25 +3972,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="e">
+      <c r="B12" t="str">
         <f>VLOOKUP('Trade Routes'!C12,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" t="e">
+        <v>p_town_12</v>
+      </c>
+      <c r="C12" t="str">
         <f>VLOOKUP('Trade Routes'!D12,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" t="e">
+        <v>p_town_15</v>
+      </c>
+      <c r="D12" t="str">
         <f>VLOOKUP('Trade Routes'!E12,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="e">
+        <v>p_town_13</v>
+      </c>
+      <c r="E12" t="str">
         <f>VLOOKUP('Trade Routes'!F12,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_24</v>
       </c>
       <c r="F12" t="e">
         <f>VLOOKUP('Trade Routes'!G12,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3512,17 +4037,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="e">
+      <c r="B13" t="str">
         <f>VLOOKUP('Trade Routes'!C13,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" t="e">
+        <v>p_town_13</v>
+      </c>
+      <c r="C13" t="str">
         <f>VLOOKUP('Trade Routes'!D13,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_15</v>
       </c>
       <c r="D13" t="e">
         <f>VLOOKUP('Trade Routes'!E13,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3577,21 +4102,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="e">
+      <c r="B14" t="str">
         <f>VLOOKUP('Trade Routes'!C14,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" t="e">
+        <v>p_town_15</v>
+      </c>
+      <c r="C14" t="str">
         <f>VLOOKUP('Trade Routes'!D14,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" t="e">
+        <v>p_town_14</v>
+      </c>
+      <c r="D14" t="str">
         <f>VLOOKUP('Trade Routes'!E14,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_24</v>
       </c>
       <c r="E14" t="e">
         <f>VLOOKUP('Trade Routes'!F14,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3642,21 +4167,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="e">
+      <c r="B15" t="str">
         <f>VLOOKUP('Trade Routes'!C15,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" t="e">
+        <v>p_town_15</v>
+      </c>
+      <c r="C15" t="str">
         <f>VLOOKUP('Trade Routes'!D15,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" t="e">
+        <v>p_town_16</v>
+      </c>
+      <c r="D15" t="str">
         <f>VLOOKUP('Trade Routes'!E15,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_29</v>
       </c>
       <c r="E15" t="e">
         <f>VLOOKUP('Trade Routes'!F15,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3707,25 +4232,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="e">
+      <c r="B16" t="str">
         <f>VLOOKUP('Trade Routes'!C16,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" t="e">
+        <v>p_town_8</v>
+      </c>
+      <c r="C16" t="str">
         <f>VLOOKUP('Trade Routes'!D16,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" t="e">
+        <v>p_town_16</v>
+      </c>
+      <c r="D16" t="str">
         <f>VLOOKUP('Trade Routes'!E16,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
+        <v>p_town_29</v>
+      </c>
+      <c r="E16" t="str">
         <f>VLOOKUP('Trade Routes'!F16,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_35</v>
       </c>
       <c r="F16" t="e">
         <f>VLOOKUP('Trade Routes'!G16,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3772,17 +4297,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="e">
+      <c r="B17" t="str">
         <f>VLOOKUP('Trade Routes'!C17,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" t="e">
+        <v>p_town_29</v>
+      </c>
+      <c r="C17" t="str">
         <f>VLOOKUP('Trade Routes'!D17,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_12</v>
       </c>
       <c r="D17" t="e">
         <f>VLOOKUP('Trade Routes'!E17,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3837,25 +4362,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="e">
+      <c r="B18" t="str">
         <f>VLOOKUP('Trade Routes'!C18,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
+        <v>p_town_18</v>
+      </c>
+      <c r="C18" t="str">
         <f>VLOOKUP('Trade Routes'!D18,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
+        <v>p_town_12</v>
+      </c>
+      <c r="D18" t="str">
         <f>VLOOKUP('Trade Routes'!E18,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
+        <v>p_town_15</v>
+      </c>
+      <c r="E18" t="str">
         <f>VLOOKUP('Trade Routes'!F18,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_16</v>
       </c>
       <c r="F18" t="e">
         <f>VLOOKUP('Trade Routes'!G18,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -3902,7 +4427,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -3967,21 +4492,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="e">
+      <c r="B20" t="str">
         <f>VLOOKUP('Trade Routes'!C20,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" t="e">
+        <v>p_town_28</v>
+      </c>
+      <c r="C20" t="str">
         <f>VLOOKUP('Trade Routes'!D20,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D20" t="e">
+        <v>p_town_67</v>
+      </c>
+      <c r="D20" t="str">
         <f>VLOOKUP('Trade Routes'!E20,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_5</v>
       </c>
       <c r="E20" t="e">
         <f>VLOOKUP('Trade Routes'!F20,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4032,13 +4557,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="e">
+      <c r="B21" t="str">
         <f>VLOOKUP('Trade Routes'!C21,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_22</v>
       </c>
       <c r="C21" t="e">
         <f>VLOOKUP('Trade Routes'!D21,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4097,13 +4622,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="e">
+      <c r="B22" t="str">
         <f>VLOOKUP('Trade Routes'!C22,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_22</v>
       </c>
       <c r="C22" t="e">
         <f>VLOOKUP('Trade Routes'!D22,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4162,7 +4687,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -4227,17 +4752,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="e">
+      <c r="B24" t="str">
         <f>VLOOKUP('Trade Routes'!C24,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C24" t="e">
+        <v>p_town_14</v>
+      </c>
+      <c r="C24" t="str">
         <f>VLOOKUP('Trade Routes'!D24,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_13</v>
       </c>
       <c r="D24" t="e">
         <f>VLOOKUP('Trade Routes'!E24,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4292,7 +4817,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -4357,17 +4882,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="e">
+      <c r="B26" t="str">
         <f>VLOOKUP('Trade Routes'!C26,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C26" t="e">
+        <v>p_town_27</v>
+      </c>
+      <c r="C26" t="str">
         <f>VLOOKUP('Trade Routes'!D26,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_24</v>
       </c>
       <c r="D26" t="e">
         <f>VLOOKUP('Trade Routes'!E26,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4422,25 +4947,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27" t="str">
         <f>VLOOKUP('Trade Routes'!C27,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C27" t="e">
+        <v>p_town_27</v>
+      </c>
+      <c r="C27" t="str">
         <f>VLOOKUP('Trade Routes'!D27,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" t="e">
+        <v>p_town_25</v>
+      </c>
+      <c r="D27" t="str">
         <f>VLOOKUP('Trade Routes'!E27,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
+        <v>p_town_24</v>
+      </c>
+      <c r="E27" t="str">
         <f>VLOOKUP('Trade Routes'!F27,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_5</v>
       </c>
       <c r="F27" t="e">
         <f>VLOOKUP('Trade Routes'!G27,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4487,13 +5012,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28" t="str">
         <f>VLOOKUP('Trade Routes'!C28,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_6</v>
       </c>
       <c r="C28" t="e">
         <f>VLOOKUP('Trade Routes'!D28,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4552,13 +5077,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="e">
+      <c r="B29" t="str">
         <f>VLOOKUP('Trade Routes'!C29,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_67</v>
       </c>
       <c r="C29" t="e">
         <f>VLOOKUP('Trade Routes'!D29,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4617,13 +5142,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="e">
+      <c r="B30" t="str">
         <f>VLOOKUP('Trade Routes'!C30,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_17</v>
       </c>
       <c r="C30" t="e">
         <f>VLOOKUP('Trade Routes'!D30,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4682,45 +5207,45 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="e">
+      <c r="B31" t="str">
         <f>VLOOKUP('Trade Routes'!C31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C31" t="e">
+        <v>p_town_32</v>
+      </c>
+      <c r="C31" t="str">
         <f>VLOOKUP('Trade Routes'!D31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D31" t="e">
+        <v>p_town_36</v>
+      </c>
+      <c r="D31" t="str">
         <f>VLOOKUP('Trade Routes'!E31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E31" t="e">
+        <v>p_town_43</v>
+      </c>
+      <c r="E31" t="str">
         <f>VLOOKUP('Trade Routes'!F31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F31" t="e">
+        <v>p_town_44</v>
+      </c>
+      <c r="F31" t="str">
         <f>VLOOKUP('Trade Routes'!G31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G31" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="G31" t="str">
         <f>VLOOKUP('Trade Routes'!H31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H31" t="e">
+        <v>p_town_42</v>
+      </c>
+      <c r="H31" t="str">
         <f>VLOOKUP('Trade Routes'!I31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I31" t="e">
+        <v>p_town_57</v>
+      </c>
+      <c r="I31" t="str">
         <f>VLOOKUP('Trade Routes'!J31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" t="e">
+        <v>p_town_1</v>
+      </c>
+      <c r="J31" t="str">
         <f>VLOOKUP('Trade Routes'!K31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_52</v>
       </c>
       <c r="K31" t="e">
         <f>VLOOKUP('Trade Routes'!L31,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4747,25 +5272,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="e">
+      <c r="B32" t="str">
         <f>VLOOKUP('Trade Routes'!C32,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C32" t="e">
+        <v>p_town_35</v>
+      </c>
+      <c r="C32" t="str">
         <f>VLOOKUP('Trade Routes'!D32,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
+        <v>p_town_45</v>
+      </c>
+      <c r="D32" t="str">
         <f>VLOOKUP('Trade Routes'!E32,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
+        <v>p_town_46</v>
+      </c>
+      <c r="E32" t="str">
         <f>VLOOKUP('Trade Routes'!F32,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_14</v>
       </c>
       <c r="F32" t="e">
         <f>VLOOKUP('Trade Routes'!G32,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4812,37 +5337,37 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="e">
+      <c r="B33" t="str">
         <f>VLOOKUP('Trade Routes'!C33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C33" t="e">
+        <v>p_town_63</v>
+      </c>
+      <c r="C33" t="str">
         <f>VLOOKUP('Trade Routes'!D33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="e">
+        <v>p_town_56</v>
+      </c>
+      <c r="D33" t="str">
         <f>VLOOKUP('Trade Routes'!E33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
+        <v>p_town_55</v>
+      </c>
+      <c r="E33" t="str">
         <f>VLOOKUP('Trade Routes'!F33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F33" t="e">
+        <v>p_town_22</v>
+      </c>
+      <c r="F33" t="str">
         <f>VLOOKUP('Trade Routes'!G33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G33" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="G33" t="str">
         <f>VLOOKUP('Trade Routes'!H33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H33" t="e">
+        <v>p_town_2</v>
+      </c>
+      <c r="H33" t="str">
         <f>VLOOKUP('Trade Routes'!I33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_36</v>
       </c>
       <c r="I33" t="e">
         <f>VLOOKUP('Trade Routes'!J33,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4877,45 +5402,45 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="e">
+      <c r="B34" t="str">
         <f>VLOOKUP('Trade Routes'!C34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C34" t="e">
+        <v>p_town_50</v>
+      </c>
+      <c r="C34" t="str">
         <f>VLOOKUP('Trade Routes'!D34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="e">
+        <v>p_town_44</v>
+      </c>
+      <c r="D34" t="str">
         <f>VLOOKUP('Trade Routes'!E34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
+        <v>p_town_43</v>
+      </c>
+      <c r="E34" t="str">
         <f>VLOOKUP('Trade Routes'!F34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="e">
+        <v>p_town_34</v>
+      </c>
+      <c r="F34" t="str">
         <f>VLOOKUP('Trade Routes'!G34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G34" t="e">
+        <v>p_town_3</v>
+      </c>
+      <c r="G34" t="str">
         <f>VLOOKUP('Trade Routes'!H34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H34" t="e">
+        <v>p_town_28</v>
+      </c>
+      <c r="H34" t="str">
         <f>VLOOKUP('Trade Routes'!I34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I34" t="e">
+        <v>p_town_67</v>
+      </c>
+      <c r="I34" t="str">
         <f>VLOOKUP('Trade Routes'!J34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J34" t="e">
+        <v>p_town_68</v>
+      </c>
+      <c r="J34" t="str">
         <f>VLOOKUP('Trade Routes'!K34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_66</v>
       </c>
       <c r="K34" t="e">
         <f>VLOOKUP('Trade Routes'!L34,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -4942,29 +5467,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="e">
+      <c r="B35" t="str">
         <f>VLOOKUP('Trade Routes'!C35,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C35" t="e">
+        <v>p_town_43</v>
+      </c>
+      <c r="C35" t="str">
         <f>VLOOKUP('Trade Routes'!D35,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
+        <v>p_town_36</v>
+      </c>
+      <c r="D35" t="str">
         <f>VLOOKUP('Trade Routes'!E35,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
+        <v>p_town_2</v>
+      </c>
+      <c r="E35" t="str">
         <f>VLOOKUP('Trade Routes'!F35,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="e">
+        <v>p_town_3</v>
+      </c>
+      <c r="F35" t="str">
         <f>VLOOKUP('Trade Routes'!G35,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_28</v>
       </c>
       <c r="G35" t="e">
         <f>VLOOKUP('Trade Routes'!H35,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5007,33 +5532,33 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="e">
+      <c r="B36" t="str">
         <f>VLOOKUP('Trade Routes'!C36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C36" t="e">
+        <v>p_town_47</v>
+      </c>
+      <c r="C36" t="str">
         <f>VLOOKUP('Trade Routes'!D36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="e">
+        <v>p_town_23</v>
+      </c>
+      <c r="D36" t="str">
         <f>VLOOKUP('Trade Routes'!E36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E36" t="e">
+        <v>p_town_45</v>
+      </c>
+      <c r="E36" t="str">
         <f>VLOOKUP('Trade Routes'!F36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" t="e">
+        <v>p_town_46</v>
+      </c>
+      <c r="F36" t="str">
         <f>VLOOKUP('Trade Routes'!G36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" t="e">
+        <v>p_town_1</v>
+      </c>
+      <c r="G36" t="str">
         <f>VLOOKUP('Trade Routes'!H36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_67</v>
       </c>
       <c r="H36" t="e">
         <f>VLOOKUP('Trade Routes'!I36,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5072,21 +5597,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="e">
+      <c r="B37" t="str">
         <f>VLOOKUP('Trade Routes'!C37,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C37" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="C37" t="str">
         <f>VLOOKUP('Trade Routes'!D37,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" t="e">
+        <v>p_town_43</v>
+      </c>
+      <c r="D37" t="str">
         <f>VLOOKUP('Trade Routes'!E37,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_2</v>
       </c>
       <c r="E37" t="e">
         <f>VLOOKUP('Trade Routes'!F37,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5137,29 +5662,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="e">
+      <c r="B38" t="str">
         <f>VLOOKUP('Trade Routes'!C38,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C38" t="e">
+        <v>p_town_42</v>
+      </c>
+      <c r="C38" t="str">
         <f>VLOOKUP('Trade Routes'!D38,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" t="e">
+        <v>p_town_44</v>
+      </c>
+      <c r="D38" t="str">
         <f>VLOOKUP('Trade Routes'!E38,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" t="e">
+        <v>p_town_38</v>
+      </c>
+      <c r="E38" t="str">
         <f>VLOOKUP('Trade Routes'!F38,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" t="e">
+        <v>p_town_39</v>
+      </c>
+      <c r="F38" t="str">
         <f>VLOOKUP('Trade Routes'!G38,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_49</v>
       </c>
       <c r="G38" t="e">
         <f>VLOOKUP('Trade Routes'!H38,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5202,25 +5727,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="e">
+      <c r="B39" t="str">
         <f>VLOOKUP('Trade Routes'!C39,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C39" t="e">
+        <v>p_town_44</v>
+      </c>
+      <c r="C39" t="str">
         <f>VLOOKUP('Trade Routes'!D39,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" t="e">
+        <v>p_town_50</v>
+      </c>
+      <c r="D39" t="str">
         <f>VLOOKUP('Trade Routes'!E39,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E39" t="e">
+        <v>p_town_48</v>
+      </c>
+      <c r="E39" t="str">
         <f>VLOOKUP('Trade Routes'!F39,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_41</v>
       </c>
       <c r="F39" t="e">
         <f>VLOOKUP('Trade Routes'!G39,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5267,13 +5792,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="e">
+      <c r="B40" t="str">
         <f>VLOOKUP('Trade Routes'!C40,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_49</v>
       </c>
       <c r="C40" t="e">
         <f>VLOOKUP('Trade Routes'!D40,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5332,21 +5857,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="e">
+      <c r="B41" t="str">
         <f>VLOOKUP('Trade Routes'!C41,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C41" t="e">
+        <v>p_town_41</v>
+      </c>
+      <c r="C41" t="str">
         <f>VLOOKUP('Trade Routes'!D41,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D41" t="e">
+        <v>p_town_51</v>
+      </c>
+      <c r="D41" t="str">
         <f>VLOOKUP('Trade Routes'!E41,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_48</v>
       </c>
       <c r="E41" t="e">
         <f>VLOOKUP('Trade Routes'!F41,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5397,13 +5922,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="e">
+      <c r="B42" t="str">
         <f>VLOOKUP('Trade Routes'!C42,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_51</v>
       </c>
       <c r="C42" t="e">
         <f>VLOOKUP('Trade Routes'!D42,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5462,37 +5987,37 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="e">
+      <c r="B43" t="str">
         <f>VLOOKUP('Trade Routes'!C43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C43" t="e">
+        <v>p_town_58</v>
+      </c>
+      <c r="C43" t="str">
         <f>VLOOKUP('Trade Routes'!D43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D43" t="e">
+        <v>p_town_59</v>
+      </c>
+      <c r="D43" t="str">
         <f>VLOOKUP('Trade Routes'!E43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E43" t="e">
+        <v>p_town_20</v>
+      </c>
+      <c r="E43" t="str">
         <f>VLOOKUP('Trade Routes'!F43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F43" t="e">
+        <v>p_town_65</v>
+      </c>
+      <c r="F43" t="str">
         <f>VLOOKUP('Trade Routes'!G43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G43" t="e">
+        <v>p_town_64</v>
+      </c>
+      <c r="G43" t="str">
         <f>VLOOKUP('Trade Routes'!H43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H43" t="e">
+        <v>p_town_49</v>
+      </c>
+      <c r="H43" t="str">
         <f>VLOOKUP('Trade Routes'!I43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_61</v>
       </c>
       <c r="I43" t="e">
         <f>VLOOKUP('Trade Routes'!J43,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5527,17 +6052,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="e">
+      <c r="B44" t="str">
         <f>VLOOKUP('Trade Routes'!C44,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C44" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="C44" t="str">
         <f>VLOOKUP('Trade Routes'!D44,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_44</v>
       </c>
       <c r="D44" t="e">
         <f>VLOOKUP('Trade Routes'!E44,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5592,13 +6117,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="e">
+      <c r="B45" t="str">
         <f>VLOOKUP('Trade Routes'!C45,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_50</v>
       </c>
       <c r="C45" t="e">
         <f>VLOOKUP('Trade Routes'!D45,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5657,17 +6182,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="e">
+      <c r="B46" t="str">
         <f>VLOOKUP('Trade Routes'!C46,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C46" t="e">
+        <v>p_town_46</v>
+      </c>
+      <c r="C46" t="str">
         <f>VLOOKUP('Trade Routes'!D46,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_23</v>
       </c>
       <c r="D46" t="e">
         <f>VLOOKUP('Trade Routes'!E46,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5722,7 +6247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
@@ -5787,21 +6312,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="e">
+      <c r="B48" t="str">
         <f>VLOOKUP('Trade Routes'!C48,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C48" t="e">
+        <v>p_town_25</v>
+      </c>
+      <c r="C48" t="str">
         <f>VLOOKUP('Trade Routes'!D48,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D48" t="e">
+        <v>p_town_24</v>
+      </c>
+      <c r="D48" t="str">
         <f>VLOOKUP('Trade Routes'!E48,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_11</v>
       </c>
       <c r="E48" t="e">
         <f>VLOOKUP('Trade Routes'!F48,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5852,17 +6377,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="e">
+      <c r="B49" t="str">
         <f>VLOOKUP('Trade Routes'!C49,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C49" t="e">
+        <v>p_town_51</v>
+      </c>
+      <c r="C49" t="str">
         <f>VLOOKUP('Trade Routes'!D49,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_50</v>
       </c>
       <c r="D49" t="e">
         <f>VLOOKUP('Trade Routes'!E49,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5917,13 +6442,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="e">
+      <c r="B50" t="str">
         <f>VLOOKUP('Trade Routes'!C50,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_64</v>
       </c>
       <c r="C50" t="e">
         <f>VLOOKUP('Trade Routes'!D50,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -5982,21 +6507,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="e">
+      <c r="B51" t="str">
         <f>VLOOKUP('Trade Routes'!C51,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C51" t="e">
+        <v>p_town_51</v>
+      </c>
+      <c r="C51" t="str">
         <f>VLOOKUP('Trade Routes'!D51,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
+        <v>p_town_70</v>
+      </c>
+      <c r="D51" t="str">
         <f>VLOOKUP('Trade Routes'!E51,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_66</v>
       </c>
       <c r="E51" t="e">
         <f>VLOOKUP('Trade Routes'!F51,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6047,7 +6572,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
@@ -6112,49 +6637,49 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="e">
+      <c r="B53" t="str">
         <f>VLOOKUP('Trade Routes'!C53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C53" t="e">
+        <v>p_town_53</v>
+      </c>
+      <c r="C53" t="str">
         <f>VLOOKUP('Trade Routes'!D53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" t="e">
+        <v>p_town_9</v>
+      </c>
+      <c r="D53" t="str">
         <f>VLOOKUP('Trade Routes'!E53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E53" t="e">
+        <v>p_town_7</v>
+      </c>
+      <c r="E53" t="str">
         <f>VLOOKUP('Trade Routes'!F53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" t="e">
+        <v>p_town_54</v>
+      </c>
+      <c r="F53" t="str">
         <f>VLOOKUP('Trade Routes'!G53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G53" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="G53" t="str">
         <f>VLOOKUP('Trade Routes'!H53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H53" t="e">
+        <v>p_town_55</v>
+      </c>
+      <c r="H53" t="str">
         <f>VLOOKUP('Trade Routes'!I53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" t="e">
+        <v>p_town_56</v>
+      </c>
+      <c r="I53" t="str">
         <f>VLOOKUP('Trade Routes'!J53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" t="e">
+        <v>p_town_63</v>
+      </c>
+      <c r="J53" t="str">
         <f>VLOOKUP('Trade Routes'!K53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K53" t="e">
+        <v>p_town_61</v>
+      </c>
+      <c r="K53" t="str">
         <f>VLOOKUP('Trade Routes'!L53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_1</v>
       </c>
       <c r="L53" t="e">
         <f>VLOOKUP('Trade Routes'!M53,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6177,21 +6702,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="e">
+      <c r="B54" t="str">
         <f>VLOOKUP('Trade Routes'!C54,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C54" t="e">
+        <v>p_town_9</v>
+      </c>
+      <c r="C54" t="str">
         <f>VLOOKUP('Trade Routes'!D54,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D54" t="e">
+        <v>p_town_56</v>
+      </c>
+      <c r="D54" t="str">
         <f>VLOOKUP('Trade Routes'!E54,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_60</v>
       </c>
       <c r="E54" t="e">
         <f>VLOOKUP('Trade Routes'!F54,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6242,21 +6767,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="e">
+      <c r="B55" t="str">
         <f>VLOOKUP('Trade Routes'!C55,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C55" t="e">
+        <v>p_town_1</v>
+      </c>
+      <c r="C55" t="str">
         <f>VLOOKUP('Trade Routes'!D55,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="D55" t="str">
         <f>VLOOKUP('Trade Routes'!E55,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_7</v>
       </c>
       <c r="E55" t="e">
         <f>VLOOKUP('Trade Routes'!F55,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6307,25 +6832,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="e">
+      <c r="B56" t="str">
         <f>VLOOKUP('Trade Routes'!C56,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C56" t="e">
+        <v>p_town_54</v>
+      </c>
+      <c r="C56" t="str">
         <f>VLOOKUP('Trade Routes'!D56,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D56" t="e">
+        <v>p_town_22</v>
+      </c>
+      <c r="D56" t="str">
         <f>VLOOKUP('Trade Routes'!E56,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E56" t="e">
+        <v>p_town_21</v>
+      </c>
+      <c r="E56" t="str">
         <f>VLOOKUP('Trade Routes'!F56,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_56</v>
       </c>
       <c r="F56" t="e">
         <f>VLOOKUP('Trade Routes'!G56,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6372,25 +6897,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="e">
+      <c r="B57" t="str">
         <f>VLOOKUP('Trade Routes'!C57,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C57" t="e">
+        <v>p_town_63</v>
+      </c>
+      <c r="C57" t="str">
         <f>VLOOKUP('Trade Routes'!D57,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" t="e">
+        <v>p_town_57</v>
+      </c>
+      <c r="D57" t="str">
         <f>VLOOKUP('Trade Routes'!E57,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E57" t="e">
+        <v>p_town_65</v>
+      </c>
+      <c r="E57" t="str">
         <f>VLOOKUP('Trade Routes'!F57,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_64</v>
       </c>
       <c r="F57" t="e">
         <f>VLOOKUP('Trade Routes'!G57,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6437,29 +6962,29 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="e">
+      <c r="B58" t="str">
         <f>VLOOKUP('Trade Routes'!C58,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C58" t="e">
+        <v>p_town_64</v>
+      </c>
+      <c r="C58" t="str">
         <f>VLOOKUP('Trade Routes'!D58,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D58" t="e">
+        <v>p_town_65</v>
+      </c>
+      <c r="D58" t="str">
         <f>VLOOKUP('Trade Routes'!E58,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E58" t="e">
+        <v>p_town_63</v>
+      </c>
+      <c r="E58" t="str">
         <f>VLOOKUP('Trade Routes'!F58,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F58" t="e">
+        <v>p_town_32</v>
+      </c>
+      <c r="F58" t="str">
         <f>VLOOKUP('Trade Routes'!G58,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_37</v>
       </c>
       <c r="G58" t="e">
         <f>VLOOKUP('Trade Routes'!H58,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6502,41 +7027,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="e">
+      <c r="B59" t="str">
         <f>VLOOKUP('Trade Routes'!C59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C59" t="e">
+        <v>p_town_60</v>
+      </c>
+      <c r="C59" t="str">
         <f>VLOOKUP('Trade Routes'!D59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D59" t="e">
+        <v>p_town_59</v>
+      </c>
+      <c r="D59" t="str">
         <f>VLOOKUP('Trade Routes'!E59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E59" t="e">
+        <v>p_town_20</v>
+      </c>
+      <c r="E59" t="str">
         <f>VLOOKUP('Trade Routes'!F59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F59" t="e">
+        <v>p_town_65</v>
+      </c>
+      <c r="F59" t="str">
         <f>VLOOKUP('Trade Routes'!G59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G59" t="e">
+        <v>p_town_64</v>
+      </c>
+      <c r="G59" t="str">
         <f>VLOOKUP('Trade Routes'!H59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H59" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="H59" t="str">
         <f>VLOOKUP('Trade Routes'!I59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I59" t="e">
+        <v>p_town_61</v>
+      </c>
+      <c r="I59" t="str">
         <f>VLOOKUP('Trade Routes'!J59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_52</v>
       </c>
       <c r="J59" t="e">
         <f>VLOOKUP('Trade Routes'!K59,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6567,17 +7092,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="e">
+      <c r="B60" t="str">
         <f>VLOOKUP('Trade Routes'!C60,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C60" t="e">
+        <v>p_town_20</v>
+      </c>
+      <c r="C60" t="str">
         <f>VLOOKUP('Trade Routes'!D60,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_63</v>
       </c>
       <c r="D60" t="e">
         <f>VLOOKUP('Trade Routes'!E60,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6632,33 +7157,33 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="e">
+      <c r="B61" t="str">
         <f>VLOOKUP('Trade Routes'!C61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C61" t="e">
+        <v>p_town_63</v>
+      </c>
+      <c r="C61" t="str">
         <f>VLOOKUP('Trade Routes'!D61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D61" t="e">
+        <v>p_town_56</v>
+      </c>
+      <c r="D61" t="str">
         <f>VLOOKUP('Trade Routes'!E61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E61" t="e">
+        <v>p_town_52</v>
+      </c>
+      <c r="E61" t="str">
         <f>VLOOKUP('Trade Routes'!F61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" t="e">
+        <v>p_town_53</v>
+      </c>
+      <c r="F61" t="str">
         <f>VLOOKUP('Trade Routes'!G61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G61" t="e">
+        <v>p_town_61</v>
+      </c>
+      <c r="G61" t="str">
         <f>VLOOKUP('Trade Routes'!H61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_42</v>
       </c>
       <c r="H61" t="e">
         <f>VLOOKUP('Trade Routes'!I61,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6697,25 +7222,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B62" t="e">
+      <c r="B62" t="str">
         <f>VLOOKUP('Trade Routes'!C62,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C62" t="e">
+        <v>p_town_64</v>
+      </c>
+      <c r="C62" t="str">
         <f>VLOOKUP('Trade Routes'!D62,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D62" t="e">
+        <v>p_town_30</v>
+      </c>
+      <c r="D62" t="str">
         <f>VLOOKUP('Trade Routes'!E62,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E62" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="E62" t="str">
         <f>VLOOKUP('Trade Routes'!F62,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_39</v>
       </c>
       <c r="F62" t="e">
         <f>VLOOKUP('Trade Routes'!G62,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6762,25 +7287,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="e">
+      <c r="B63" t="str">
         <f>VLOOKUP('Trade Routes'!C63,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C63" t="e">
+        <v>p_town_63</v>
+      </c>
+      <c r="C63" t="str">
         <f>VLOOKUP('Trade Routes'!D63,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" t="e">
+        <v>p_town_56</v>
+      </c>
+      <c r="D63" t="str">
         <f>VLOOKUP('Trade Routes'!E63,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E63" t="e">
+        <v>p_town_52</v>
+      </c>
+      <c r="E63" t="str">
         <f>VLOOKUP('Trade Routes'!F63,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_53</v>
       </c>
       <c r="F63" t="e">
         <f>VLOOKUP('Trade Routes'!G63,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6827,17 +7352,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="e">
+      <c r="B64" t="str">
         <f>VLOOKUP('Trade Routes'!C64,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C64" t="e">
+        <v>p_town_20</v>
+      </c>
+      <c r="C64" t="str">
         <f>VLOOKUP('Trade Routes'!D64,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_30</v>
       </c>
       <c r="D64" t="e">
         <f>VLOOKUP('Trade Routes'!E64,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6892,17 +7417,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="e">
+      <c r="B65" t="str">
         <f>VLOOKUP('Trade Routes'!C65,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C65" t="e">
+        <v>p_town_30</v>
+      </c>
+      <c r="C65" t="str">
         <f>VLOOKUP('Trade Routes'!D65,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_37</v>
       </c>
       <c r="D65" t="e">
         <f>VLOOKUP('Trade Routes'!E65,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -6957,17 +7482,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="e">
+      <c r="B66" t="str">
         <f>VLOOKUP('Trade Routes'!C66,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C66" t="e">
+        <v>p_town_20</v>
+      </c>
+      <c r="C66" t="str">
         <f>VLOOKUP('Trade Routes'!D66,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_64</v>
       </c>
       <c r="D66" t="e">
         <f>VLOOKUP('Trade Routes'!E66,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7022,41 +7547,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="e">
+      <c r="B67" t="str">
         <f>VLOOKUP('Trade Routes'!C67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C67" t="e">
+        <v>p_town_70</v>
+      </c>
+      <c r="C67" t="str">
         <f>VLOOKUP('Trade Routes'!D67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D67" t="e">
+        <v>p_town_73</v>
+      </c>
+      <c r="D67" t="str">
         <f>VLOOKUP('Trade Routes'!E67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E67" t="e">
+        <v>p_town_68</v>
+      </c>
+      <c r="E67" t="str">
         <f>VLOOKUP('Trade Routes'!F67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F67" t="e">
+        <v>p_town_67</v>
+      </c>
+      <c r="F67" t="str">
         <f>VLOOKUP('Trade Routes'!G67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G67" t="e">
+        <v>p_town_28</v>
+      </c>
+      <c r="G67" t="str">
         <f>VLOOKUP('Trade Routes'!H67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H67" t="e">
+        <v>p_town_72</v>
+      </c>
+      <c r="H67" t="str">
         <f>VLOOKUP('Trade Routes'!I67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I67" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="I67" t="str">
         <f>VLOOKUP('Trade Routes'!J67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_30</v>
       </c>
       <c r="J67" t="e">
         <f>VLOOKUP('Trade Routes'!K67,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7087,41 +7612,41 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="e">
+      <c r="B68" t="str">
         <f>VLOOKUP('Trade Routes'!C68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C68" t="e">
+        <v>p_town_28</v>
+      </c>
+      <c r="C68" t="str">
         <f>VLOOKUP('Trade Routes'!D68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D68" t="e">
+        <v>p_town_68</v>
+      </c>
+      <c r="D68" t="str">
         <f>VLOOKUP('Trade Routes'!E68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E68" t="e">
+        <v>p_town_73</v>
+      </c>
+      <c r="E68" t="str">
         <f>VLOOKUP('Trade Routes'!F68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F68" t="e">
+        <v>p_town_69</v>
+      </c>
+      <c r="F68" t="str">
         <f>VLOOKUP('Trade Routes'!G68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G68" t="e">
+        <v>p_town_70</v>
+      </c>
+      <c r="G68" t="str">
         <f>VLOOKUP('Trade Routes'!H68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H68" t="e">
+        <v>p_town_1</v>
+      </c>
+      <c r="H68" t="str">
         <f>VLOOKUP('Trade Routes'!I68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I68" t="e">
+        <v>p_town_37</v>
+      </c>
+      <c r="I68" t="str">
         <f>VLOOKUP('Trade Routes'!J68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_30</v>
       </c>
       <c r="J68" t="e">
         <f>VLOOKUP('Trade Routes'!K68,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7152,25 +7677,25 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="e">
+      <c r="B69" t="str">
         <f>VLOOKUP('Trade Routes'!C69,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C69" t="e">
+        <v>p_town_73</v>
+      </c>
+      <c r="C69" t="str">
         <f>VLOOKUP('Trade Routes'!D69,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D69" t="e">
+        <v>p_town_69</v>
+      </c>
+      <c r="D69" t="str">
         <f>VLOOKUP('Trade Routes'!E69,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E69" t="e">
+        <v>p_town_70</v>
+      </c>
+      <c r="E69" t="str">
         <f>VLOOKUP('Trade Routes'!F69,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_71</v>
       </c>
       <c r="F69" t="e">
         <f>VLOOKUP('Trade Routes'!G69,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7217,21 +7742,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="e">
+      <c r="B70" t="str">
         <f>VLOOKUP('Trade Routes'!C70,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C70" t="e">
+        <v>p_town_73</v>
+      </c>
+      <c r="C70" t="str">
         <f>VLOOKUP('Trade Routes'!D70,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D70" t="e">
+        <v>p_town_70</v>
+      </c>
+      <c r="D70" t="str">
         <f>VLOOKUP('Trade Routes'!E70,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_72</v>
       </c>
       <c r="E70" t="e">
         <f>VLOOKUP('Trade Routes'!F70,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7282,17 +7807,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="e">
+      <c r="B71" t="str">
         <f>VLOOKUP('Trade Routes'!C71,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C71" t="e">
+        <v>p_town_71</v>
+      </c>
+      <c r="C71" t="str">
         <f>VLOOKUP('Trade Routes'!D71,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_73</v>
       </c>
       <c r="D71" t="e">
         <f>VLOOKUP('Trade Routes'!E71,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7347,13 +7872,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B72" t="e">
+      <c r="B72" t="str">
         <f>VLOOKUP('Trade Routes'!C72,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_72</v>
       </c>
       <c r="C72" t="e">
         <f>VLOOKUP('Trade Routes'!D72,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7412,13 +7937,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B73" t="e">
+      <c r="B73" t="str">
         <f>VLOOKUP('Trade Routes'!C73,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_67</v>
       </c>
       <c r="C73" t="e">
         <f>VLOOKUP('Trade Routes'!D73,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7477,13 +8002,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="e">
+      <c r="B74" t="str">
         <f>VLOOKUP('Trade Routes'!C74,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>p_town_72</v>
       </c>
       <c r="C74" t="e">
         <f>VLOOKUP('Trade Routes'!D74,'Trade Routes'!$A$2:'Trade Routes'!$B$74,2,FALSE)</f>
@@ -7552,20 +8077,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589BA0C4-E868-41E0-A435-8872D48A8CF3}">
   <dimension ref="A1:R74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>162</v>
       </c>
@@ -7619,7 +8144,7 @@
       </c>
       <c r="R1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -7628,39 +8153,39 @@
       </c>
       <c r="C2" t="str">
         <f>IF('Trade Routes'!C2:Q2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_21"),</v>
       </c>
       <c r="D2" t="str">
         <f>IF('Trade Routes'!D2:R2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_2"),</v>
       </c>
       <c r="E2" t="str">
         <f>IF('Trade Routes'!E2:S2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_3"),</v>
       </c>
       <c r="F2" t="str">
         <f>IF('Trade Routes'!F2:T2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_19"),</v>
       </c>
       <c r="G2" t="str">
         <f>IF('Trade Routes'!G2:U2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_4"),</v>
       </c>
       <c r="H2" t="str">
         <f>IF('Trade Routes'!H2:V2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_27"),</v>
       </c>
       <c r="I2" t="str">
         <f>IF('Trade Routes'!I2:W2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_6"),</v>
       </c>
       <c r="J2" t="str">
         <f>IF('Trade Routes'!J2:X2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_7"),</v>
       </c>
       <c r="K2" t="str">
         <f>IF('Trade Routes'!K2:Y2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_15"),</v>
       </c>
       <c r="L2" t="str">
         <f>IF('Trade Routes'!L2:Z2&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B2,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!K2,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -7687,7 +8212,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -7696,15 +8221,15 @@
       </c>
       <c r="C3" t="str">
         <f>IF('Trade Routes'!C3:Q3&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B3,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B3,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_2","p_town_22"),</v>
       </c>
       <c r="D3" t="str">
         <f>IF('Trade Routes'!D3:R3&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B3,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C3,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_2","p_town_21"),</v>
       </c>
       <c r="E3" t="str">
         <f>IF('Trade Routes'!E3:S3&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B3,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D3,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_2","p_town_3"),</v>
       </c>
       <c r="F3" t="str">
         <f>IF('Trade Routes'!F3:T3&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B3,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E3,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -7755,7 +8280,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -7764,23 +8289,23 @@
       </c>
       <c r="C4" t="str">
         <f>IF('Trade Routes'!C4:Q4&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B4,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B4,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_21"),</v>
       </c>
       <c r="D4" t="str">
         <f>IF('Trade Routes'!D4:R4&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B4,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C4,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_6"),</v>
       </c>
       <c r="E4" t="str">
         <f>IF('Trade Routes'!E4:S4&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B4,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D4,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_4"),</v>
       </c>
       <c r="F4" t="str">
         <f>IF('Trade Routes'!F4:T4&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B4,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E4,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_19"),</v>
       </c>
       <c r="G4" t="str">
         <f>IF('Trade Routes'!G4:U4&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B4,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F4,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_28"),</v>
       </c>
       <c r="H4" t="str">
         <f>IF('Trade Routes'!H4:V4&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B4,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G4,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -7823,7 +8348,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -7832,23 +8357,23 @@
       </c>
       <c r="C5" t="str">
         <f>IF('Trade Routes'!C5:Q5&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B5,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B5,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_27"),</v>
       </c>
       <c r="D5" t="str">
         <f>IF('Trade Routes'!D5:R5&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B5,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C5,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_25"),</v>
       </c>
       <c r="E5" t="str">
         <f>IF('Trade Routes'!E5:S5&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B5,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D5,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_26"),</v>
       </c>
       <c r="F5" t="str">
         <f>IF('Trade Routes'!F5:T5&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B5,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E5,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_5"),</v>
       </c>
       <c r="G5" t="str">
         <f>IF('Trade Routes'!G5:U5&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B5,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F5,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_19"),</v>
       </c>
       <c r="H5" t="str">
         <f>IF('Trade Routes'!H5:V5&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B5,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G5,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -7891,7 +8416,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
@@ -7900,23 +8425,23 @@
       </c>
       <c r="C6" t="str">
         <f>IF('Trade Routes'!C6:Q6&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B6,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B6,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_19"),</v>
       </c>
       <c r="D6" t="str">
         <f>IF('Trade Routes'!D6:R6&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B6,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C6,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_4"),</v>
       </c>
       <c r="E6" t="str">
         <f>IF('Trade Routes'!E6:S6&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B6,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D6,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_27"),</v>
       </c>
       <c r="F6" t="str">
         <f>IF('Trade Routes'!F6:T6&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B6,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E6,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_26"),</v>
       </c>
       <c r="G6" t="str">
         <f>IF('Trade Routes'!G6:U6&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B6,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F6,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_67"),</v>
       </c>
       <c r="H6" t="str">
         <f>IF('Trade Routes'!H6:V6&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B6,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G6,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -7959,7 +8484,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -7968,23 +8493,23 @@
       </c>
       <c r="C7" t="str">
         <f>IF('Trade Routes'!C7:Q7&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B7,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B7,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_7"),</v>
       </c>
       <c r="D7" t="str">
         <f>IF('Trade Routes'!D7:R7&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B7,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C7,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_10"),</v>
       </c>
       <c r="E7" t="str">
         <f>IF('Trade Routes'!E7:S7&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B7,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D7,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_8"),</v>
       </c>
       <c r="F7" t="str">
         <f>IF('Trade Routes'!F7:T7&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B7,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E7,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_25"),</v>
       </c>
       <c r="G7" t="str">
         <f>IF('Trade Routes'!G7:U7&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B7,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F7,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_27"),</v>
       </c>
       <c r="H7" t="str">
         <f>IF('Trade Routes'!H7:V7&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B7,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G7,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8027,7 +8552,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -8036,15 +8561,15 @@
       </c>
       <c r="C8" t="str">
         <f>IF('Trade Routes'!C8:Q8&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B8,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B8,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_7","p_town_9"),</v>
       </c>
       <c r="D8" t="str">
         <f>IF('Trade Routes'!D8:R8&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B8,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C8,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_7","p_town_10"),</v>
       </c>
       <c r="E8" t="str">
         <f>IF('Trade Routes'!E8:S8&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B8,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D8,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_7","p_town_21"),</v>
       </c>
       <c r="F8" t="str">
         <f>IF('Trade Routes'!F8:T8&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B8,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E8,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8095,7 +8620,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -8104,23 +8629,23 @@
       </c>
       <c r="C9" t="str">
         <f>IF('Trade Routes'!C9:Q9&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B9,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B9,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_10"),</v>
       </c>
       <c r="D9" t="str">
         <f>IF('Trade Routes'!D9:R9&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B9,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C9,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_12"),</v>
       </c>
       <c r="E9" t="str">
         <f>IF('Trade Routes'!E9:S9&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B9,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D9,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_11"),</v>
       </c>
       <c r="F9" t="str">
         <f>IF('Trade Routes'!F9:T9&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B9,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E9,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_24"),</v>
       </c>
       <c r="G9" t="str">
         <f>IF('Trade Routes'!G9:U9&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B9,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F9,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_25"),</v>
       </c>
       <c r="H9" t="str">
         <f>IF('Trade Routes'!H9:V9&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B9,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G9,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8163,7 +8688,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>81</v>
       </c>
@@ -8172,11 +8697,11 @@
       </c>
       <c r="C10" t="str">
         <f>IF('Trade Routes'!C10:Q10&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B10,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B10,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_9","p_town_18"),</v>
       </c>
       <c r="D10" t="str">
         <f>IF('Trade Routes'!D10:R10&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B10,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C10,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_9","p_town_1"),</v>
       </c>
       <c r="E10" t="str">
         <f>IF('Trade Routes'!E10:S10&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B10,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D10,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8231,7 +8756,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -8240,19 +8765,19 @@
       </c>
       <c r="C11" t="str">
         <f>IF('Trade Routes'!C11:Q11&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B11,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B11,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_27"),</v>
       </c>
       <c r="D11" t="str">
         <f>IF('Trade Routes'!D11:R11&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B11,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C11,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_9"),</v>
       </c>
       <c r="E11" t="str">
         <f>IF('Trade Routes'!E11:S11&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B11,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D11,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_15"),</v>
       </c>
       <c r="F11" t="str">
         <f>IF('Trade Routes'!F11:T11&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B11,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E11,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_52"),</v>
       </c>
       <c r="G11" t="str">
         <f>IF('Trade Routes'!G11:U11&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B11,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F11,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8299,7 +8824,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>83</v>
       </c>
@@ -8308,19 +8833,19 @@
       </c>
       <c r="C12" t="str">
         <f>IF('Trade Routes'!C12:Q12&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B12,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B12,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_12"),</v>
       </c>
       <c r="D12" t="str">
         <f>IF('Trade Routes'!D12:R12&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B12,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C12,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_15"),</v>
       </c>
       <c r="E12" t="str">
         <f>IF('Trade Routes'!E12:S12&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B12,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D12,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_13"),</v>
       </c>
       <c r="F12" t="str">
         <f>IF('Trade Routes'!F12:T12&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B12,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E12,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_24"),</v>
       </c>
       <c r="G12" t="str">
         <f>IF('Trade Routes'!G12:U12&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B12,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F12,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8367,7 +8892,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>84</v>
       </c>
@@ -8376,11 +8901,11 @@
       </c>
       <c r="C13" t="str">
         <f>IF('Trade Routes'!C13:Q13&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B13,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B13,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_12","p_town_13"),</v>
       </c>
       <c r="D13" t="str">
         <f>IF('Trade Routes'!D13:R13&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B13,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C13,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_12","p_town_15"),</v>
       </c>
       <c r="E13" t="str">
         <f>IF('Trade Routes'!E13:S13&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B13,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D13,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8435,7 +8960,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>85</v>
       </c>
@@ -8444,15 +8969,15 @@
       </c>
       <c r="C14" t="str">
         <f>IF('Trade Routes'!C14:Q14&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B14,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B14,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_13","p_town_15"),</v>
       </c>
       <c r="D14" t="str">
         <f>IF('Trade Routes'!D14:R14&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B14,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C14,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_13","p_town_14"),</v>
       </c>
       <c r="E14" t="str">
         <f>IF('Trade Routes'!E14:S14&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B14,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D14,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_13","p_town_24"),</v>
       </c>
       <c r="F14" t="str">
         <f>IF('Trade Routes'!F14:T14&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B14,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E14,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8503,7 +9028,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>86</v>
       </c>
@@ -8512,15 +9037,15 @@
       </c>
       <c r="C15" t="str">
         <f>IF('Trade Routes'!C15:Q15&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B15,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B15,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_14","p_town_15"),</v>
       </c>
       <c r="D15" t="str">
         <f>IF('Trade Routes'!D15:R15&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B15,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C15,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_14","p_town_16"),</v>
       </c>
       <c r="E15" t="str">
         <f>IF('Trade Routes'!E15:S15&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B15,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D15,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_14","p_town_29"),</v>
       </c>
       <c r="F15" t="str">
         <f>IF('Trade Routes'!F15:T15&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B15,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E15,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8571,7 +9096,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>87</v>
       </c>
@@ -8580,19 +9105,19 @@
       </c>
       <c r="C16" t="str">
         <f>IF('Trade Routes'!C16:Q16&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B16,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B16,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_8"),</v>
       </c>
       <c r="D16" t="str">
         <f>IF('Trade Routes'!D16:R16&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B16,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C16,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_16"),</v>
       </c>
       <c r="E16" t="str">
         <f>IF('Trade Routes'!E16:S16&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B16,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D16,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_29"),</v>
       </c>
       <c r="F16" t="str">
         <f>IF('Trade Routes'!F16:T16&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B16,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E16,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_35"),</v>
       </c>
       <c r="G16" t="str">
         <f>IF('Trade Routes'!G16:U16&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B16,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F16,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8639,7 +9164,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>88</v>
       </c>
@@ -8648,11 +9173,11 @@
       </c>
       <c r="C17" t="str">
         <f>IF('Trade Routes'!C17:Q17&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B17,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B17,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_16","p_town_29"),</v>
       </c>
       <c r="D17" t="str">
         <f>IF('Trade Routes'!D17:R17&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B17,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C17,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_16","p_town_12"),</v>
       </c>
       <c r="E17" t="str">
         <f>IF('Trade Routes'!E17:S17&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B17,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D17,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8707,7 +9232,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
@@ -8716,19 +9241,19 @@
       </c>
       <c r="C18" t="str">
         <f>IF('Trade Routes'!C18:Q18&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B18,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B18,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_18"),</v>
       </c>
       <c r="D18" t="str">
         <f>IF('Trade Routes'!D18:R18&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B18,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C18,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_12"),</v>
       </c>
       <c r="E18" t="str">
         <f>IF('Trade Routes'!E18:S18&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B18,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D18,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_15"),</v>
       </c>
       <c r="F18" t="str">
         <f>IF('Trade Routes'!F18:T18&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B18,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E18,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_16"),</v>
       </c>
       <c r="G18" t="str">
         <f>IF('Trade Routes'!G18:U18&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B18,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F18,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8775,7 +9300,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -8843,7 +9368,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>91</v>
       </c>
@@ -8852,15 +9377,15 @@
       </c>
       <c r="C20" t="str">
         <f>IF('Trade Routes'!C20:Q20&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B20,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B20,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_19","p_town_28"),</v>
       </c>
       <c r="D20" t="str">
         <f>IF('Trade Routes'!D20:R20&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B20,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C20,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_19","p_town_67"),</v>
       </c>
       <c r="E20" t="str">
         <f>IF('Trade Routes'!E20:S20&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B20,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D20,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_19","p_town_5"),</v>
       </c>
       <c r="F20" t="str">
         <f>IF('Trade Routes'!F20:T20&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B20,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E20,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8911,7 +9436,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -8920,7 +9445,7 @@
       </c>
       <c r="C21" t="str">
         <f>IF('Trade Routes'!C21:Q21&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B21,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B21,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_20","p_town_22"),</v>
       </c>
       <c r="D21" t="str">
         <f>IF('Trade Routes'!D21:R21&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B21,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C21,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -8979,7 +9504,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
@@ -8988,7 +9513,7 @@
       </c>
       <c r="C22" t="str">
         <f>IF('Trade Routes'!C22:Q22&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B22,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B22,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_21","p_town_22"),</v>
       </c>
       <c r="D22" t="str">
         <f>IF('Trade Routes'!D22:R22&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B22,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C22,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9047,7 +9572,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>94</v>
       </c>
@@ -9115,7 +9640,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>95</v>
       </c>
@@ -9124,11 +9649,11 @@
       </c>
       <c r="C24" t="str">
         <f>IF('Trade Routes'!C24:Q24&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B24,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B24,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_23","p_town_14"),</v>
       </c>
       <c r="D24" t="str">
         <f>IF('Trade Routes'!D24:R24&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B24,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C24,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_23","p_town_13"),</v>
       </c>
       <c r="E24" t="str">
         <f>IF('Trade Routes'!E24:S24&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B24,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D24,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9183,7 +9708,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -9251,7 +9776,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
@@ -9260,11 +9785,11 @@
       </c>
       <c r="C26" t="str">
         <f>IF('Trade Routes'!C26:Q26&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B26,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B26,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_25","p_town_27"),</v>
       </c>
       <c r="D26" t="str">
         <f>IF('Trade Routes'!D26:R26&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B26,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C26,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_25","p_town_24"),</v>
       </c>
       <c r="E26" t="str">
         <f>IF('Trade Routes'!E26:S26&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B26,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D26,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9319,7 +9844,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -9328,19 +9853,19 @@
       </c>
       <c r="C27" t="str">
         <f>IF('Trade Routes'!C27:Q27&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B27,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B27,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_27"),</v>
       </c>
       <c r="D27" t="str">
         <f>IF('Trade Routes'!D27:R27&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B27,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C27,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_25"),</v>
       </c>
       <c r="E27" t="str">
         <f>IF('Trade Routes'!E27:S27&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B27,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D27,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_24"),</v>
       </c>
       <c r="F27" t="str">
         <f>IF('Trade Routes'!F27:T27&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B27,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E27,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_5"),</v>
       </c>
       <c r="G27" t="str">
         <f>IF('Trade Routes'!G27:U27&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B27,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F27,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9387,7 +9912,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -9396,7 +9921,7 @@
       </c>
       <c r="C28" t="str">
         <f>IF('Trade Routes'!C28:Q28&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B28,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B28,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_27","p_town_6"),</v>
       </c>
       <c r="D28" t="str">
         <f>IF('Trade Routes'!D28:R28&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B28,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C28,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9455,7 +9980,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
@@ -9464,7 +9989,7 @@
       </c>
       <c r="C29" t="str">
         <f>IF('Trade Routes'!C29:Q29&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B29,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B29,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_28","p_town_67"),</v>
       </c>
       <c r="D29" t="str">
         <f>IF('Trade Routes'!D29:R29&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B29,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C29,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9523,7 +10048,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -9532,7 +10057,7 @@
       </c>
       <c r="C30" t="str">
         <f>IF('Trade Routes'!C30:Q30&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B30,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B30,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_29","p_town_17"),</v>
       </c>
       <c r="D30" t="str">
         <f>IF('Trade Routes'!D30:R30&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B30,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C30,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9591,7 +10116,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>102</v>
       </c>
@@ -9600,39 +10125,39 @@
       </c>
       <c r="C31" t="str">
         <f>IF('Trade Routes'!C31:Q31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_32"),</v>
       </c>
       <c r="D31" t="str">
         <f>IF('Trade Routes'!D31:R31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_36"),</v>
       </c>
       <c r="E31" t="str">
         <f>IF('Trade Routes'!E31:S31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_43"),</v>
       </c>
       <c r="F31" t="str">
         <f>IF('Trade Routes'!F31:T31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_44"),</v>
       </c>
       <c r="G31" t="str">
         <f>IF('Trade Routes'!G31:U31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_37"),</v>
       </c>
       <c r="H31" t="str">
         <f>IF('Trade Routes'!H31:V31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_42"),</v>
       </c>
       <c r="I31" t="str">
         <f>IF('Trade Routes'!I31:W31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_57"),</v>
       </c>
       <c r="J31" t="str">
         <f>IF('Trade Routes'!J31:X31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_1"),</v>
       </c>
       <c r="K31" t="str">
         <f>IF('Trade Routes'!K31:Y31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_52"),</v>
       </c>
       <c r="L31" t="str">
         <f>IF('Trade Routes'!L31:Z31&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B31,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!K31,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9659,7 +10184,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -9668,19 +10193,19 @@
       </c>
       <c r="C32" t="str">
         <f>IF('Trade Routes'!C32:Q32&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B32,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B32,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_35"),</v>
       </c>
       <c r="D32" t="str">
         <f>IF('Trade Routes'!D32:R32&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B32,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C32,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_45"),</v>
       </c>
       <c r="E32" t="str">
         <f>IF('Trade Routes'!E32:S32&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B32,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D32,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_46"),</v>
       </c>
       <c r="F32" t="str">
         <f>IF('Trade Routes'!F32:T32&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B32,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E32,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_14"),</v>
       </c>
       <c r="G32" t="str">
         <f>IF('Trade Routes'!G32:U32&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B32,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F32,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9727,7 +10252,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
@@ -9736,31 +10261,31 @@
       </c>
       <c r="C33" t="str">
         <f>IF('Trade Routes'!C33:Q33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_63"),</v>
       </c>
       <c r="D33" t="str">
         <f>IF('Trade Routes'!D33:R33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_56"),</v>
       </c>
       <c r="E33" t="str">
         <f>IF('Trade Routes'!E33:S33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_55"),</v>
       </c>
       <c r="F33" t="str">
         <f>IF('Trade Routes'!F33:T33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_22"),</v>
       </c>
       <c r="G33" t="str">
         <f>IF('Trade Routes'!G33:U33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_21"),</v>
       </c>
       <c r="H33" t="str">
         <f>IF('Trade Routes'!H33:V33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_2"),</v>
       </c>
       <c r="I33" t="str">
         <f>IF('Trade Routes'!I33:W33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_36"),</v>
       </c>
       <c r="J33" t="str">
         <f>IF('Trade Routes'!J33:X33&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B33,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I33,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9795,7 +10320,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
@@ -9804,39 +10329,39 @@
       </c>
       <c r="C34" t="str">
         <f>IF('Trade Routes'!C34:Q34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_50"),</v>
       </c>
       <c r="D34" t="str">
         <f>IF('Trade Routes'!D34:R34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_44"),</v>
       </c>
       <c r="E34" t="str">
         <f>IF('Trade Routes'!E34:S34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_43"),</v>
       </c>
       <c r="F34" t="str">
         <f>IF('Trade Routes'!F34:T34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_34"),</v>
       </c>
       <c r="G34" t="str">
         <f>IF('Trade Routes'!G34:U34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_3"),</v>
       </c>
       <c r="H34" t="str">
         <f>IF('Trade Routes'!H34:V34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_28"),</v>
       </c>
       <c r="I34" t="str">
         <f>IF('Trade Routes'!I34:W34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_67"),</v>
       </c>
       <c r="J34" t="str">
         <f>IF('Trade Routes'!J34:X34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_68"),</v>
       </c>
       <c r="K34" t="str">
         <f>IF('Trade Routes'!K34:Y34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_66"),</v>
       </c>
       <c r="L34" t="str">
         <f>IF('Trade Routes'!L34:Z34&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B34,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!K34,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9863,7 +10388,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -9872,23 +10397,23 @@
       </c>
       <c r="C35" t="str">
         <f>IF('Trade Routes'!C35:Q35&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B35,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B35,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_43"),</v>
       </c>
       <c r="D35" t="str">
         <f>IF('Trade Routes'!D35:R35&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B35,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C35,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_36"),</v>
       </c>
       <c r="E35" t="str">
         <f>IF('Trade Routes'!E35:S35&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B35,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D35,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_2"),</v>
       </c>
       <c r="F35" t="str">
         <f>IF('Trade Routes'!F35:T35&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B35,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E35,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_3"),</v>
       </c>
       <c r="G35" t="str">
         <f>IF('Trade Routes'!G35:U35&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B35,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F35,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_28"),</v>
       </c>
       <c r="H35" t="str">
         <f>IF('Trade Routes'!H35:V35&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B35,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G35,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9931,7 +10456,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>107</v>
       </c>
@@ -9940,27 +10465,27 @@
       </c>
       <c r="C36" t="str">
         <f>IF('Trade Routes'!C36:Q36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_47"),</v>
       </c>
       <c r="D36" t="str">
         <f>IF('Trade Routes'!D36:R36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_23"),</v>
       </c>
       <c r="E36" t="str">
         <f>IF('Trade Routes'!E36:S36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_45"),</v>
       </c>
       <c r="F36" t="str">
         <f>IF('Trade Routes'!F36:T36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_46"),</v>
       </c>
       <c r="G36" t="str">
         <f>IF('Trade Routes'!G36:U36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_1"),</v>
       </c>
       <c r="H36" t="str">
         <f>IF('Trade Routes'!H36:V36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_67"),</v>
       </c>
       <c r="I36" t="str">
         <f>IF('Trade Routes'!I36:W36&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B36,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H36,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -9999,7 +10524,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>108</v>
       </c>
@@ -10008,15 +10533,15 @@
       </c>
       <c r="C37" t="str">
         <f>IF('Trade Routes'!C37:Q37&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B37,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B37,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_36","p_town_37"),</v>
       </c>
       <c r="D37" t="str">
         <f>IF('Trade Routes'!D37:R37&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B37,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C37,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_36","p_town_43"),</v>
       </c>
       <c r="E37" t="str">
         <f>IF('Trade Routes'!E37:S37&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B37,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D37,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_36","p_town_2"),</v>
       </c>
       <c r="F37" t="str">
         <f>IF('Trade Routes'!F37:T37&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B37,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E37,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10067,7 +10592,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
@@ -10076,23 +10601,23 @@
       </c>
       <c r="C38" t="str">
         <f>IF('Trade Routes'!C38:Q38&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B38,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B38,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_42"),</v>
       </c>
       <c r="D38" t="str">
         <f>IF('Trade Routes'!D38:R38&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B38,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C38,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_44"),</v>
       </c>
       <c r="E38" t="str">
         <f>IF('Trade Routes'!E38:S38&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B38,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D38,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_38"),</v>
       </c>
       <c r="F38" t="str">
         <f>IF('Trade Routes'!F38:T38&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B38,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E38,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_39"),</v>
       </c>
       <c r="G38" t="str">
         <f>IF('Trade Routes'!G38:U38&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B38,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F38,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_49"),</v>
       </c>
       <c r="H38" t="str">
         <f>IF('Trade Routes'!H38:V38&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B38,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G38,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10135,7 +10660,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>110</v>
       </c>
@@ -10144,19 +10669,19 @@
       </c>
       <c r="C39" t="str">
         <f>IF('Trade Routes'!C39:Q39&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B39,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B39,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_44"),</v>
       </c>
       <c r="D39" t="str">
         <f>IF('Trade Routes'!D39:R39&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B39,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C39,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_50"),</v>
       </c>
       <c r="E39" t="str">
         <f>IF('Trade Routes'!E39:S39&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B39,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D39,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_48"),</v>
       </c>
       <c r="F39" t="str">
         <f>IF('Trade Routes'!F39:T39&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B39,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E39,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_41"),</v>
       </c>
       <c r="G39" t="str">
         <f>IF('Trade Routes'!G39:U39&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B39,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F39,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10203,7 +10728,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>111</v>
       </c>
@@ -10212,7 +10737,7 @@
       </c>
       <c r="C40" t="str">
         <f>IF('Trade Routes'!C40:Q40&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B40,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B40,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_39","p_town_49"),</v>
       </c>
       <c r="D40" t="str">
         <f>IF('Trade Routes'!D40:R40&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B40,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C40,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10271,7 +10796,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -10280,15 +10805,15 @@
       </c>
       <c r="C41" t="str">
         <f>IF('Trade Routes'!C41:Q41&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B41,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B41,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_40","p_town_41"),</v>
       </c>
       <c r="D41" t="str">
         <f>IF('Trade Routes'!D41:R41&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B41,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C41,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_40","p_town_51"),</v>
       </c>
       <c r="E41" t="str">
         <f>IF('Trade Routes'!E41:S41&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B41,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D41,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_40","p_town_48"),</v>
       </c>
       <c r="F41" t="str">
         <f>IF('Trade Routes'!F41:T41&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B41,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E41,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10339,7 +10864,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -10348,7 +10873,7 @@
       </c>
       <c r="C42" t="str">
         <f>IF('Trade Routes'!C42:Q42&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B42,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B42,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_41","p_town_51"),</v>
       </c>
       <c r="D42" t="str">
         <f>IF('Trade Routes'!D42:R42&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B42,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C42,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10407,7 +10932,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>114</v>
       </c>
@@ -10416,31 +10941,31 @@
       </c>
       <c r="C43" t="str">
         <f>IF('Trade Routes'!C43:Q43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_58"),</v>
       </c>
       <c r="D43" t="str">
         <f>IF('Trade Routes'!D43:R43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_59"),</v>
       </c>
       <c r="E43" t="str">
         <f>IF('Trade Routes'!E43:S43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_20"),</v>
       </c>
       <c r="F43" t="str">
         <f>IF('Trade Routes'!F43:T43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_65"),</v>
       </c>
       <c r="G43" t="str">
         <f>IF('Trade Routes'!G43:U43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_64"),</v>
       </c>
       <c r="H43" t="str">
         <f>IF('Trade Routes'!H43:V43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_49"),</v>
       </c>
       <c r="I43" t="str">
         <f>IF('Trade Routes'!I43:W43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_61"),</v>
       </c>
       <c r="J43" t="str">
         <f>IF('Trade Routes'!J43:X43&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B43,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I43,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10475,7 +11000,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>115</v>
       </c>
@@ -10484,11 +11009,11 @@
       </c>
       <c r="C44" t="str">
         <f>IF('Trade Routes'!C44:Q44&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B44,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B44,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_43","p_town_37"),</v>
       </c>
       <c r="D44" t="str">
         <f>IF('Trade Routes'!D44:R44&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B44,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C44,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_43","p_town_44"),</v>
       </c>
       <c r="E44" t="str">
         <f>IF('Trade Routes'!E44:S44&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B44,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D44,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10543,7 +11068,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>116</v>
       </c>
@@ -10552,7 +11077,7 @@
       </c>
       <c r="C45" t="str">
         <f>IF('Trade Routes'!C45:Q45&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B45,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B45,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_44","p_town_50"),</v>
       </c>
       <c r="D45" t="str">
         <f>IF('Trade Routes'!D45:R45&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B45,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C45,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10611,7 +11136,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>117</v>
       </c>
@@ -10620,11 +11145,11 @@
       </c>
       <c r="C46" t="str">
         <f>IF('Trade Routes'!C46:Q46&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B46,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B46,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_45","p_town_46"),</v>
       </c>
       <c r="D46" t="str">
         <f>IF('Trade Routes'!D46:R46&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B46,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C46,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_45","p_town_23"),</v>
       </c>
       <c r="E46" t="str">
         <f>IF('Trade Routes'!E46:S46&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B46,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D46,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10679,7 +11204,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -10747,7 +11272,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
@@ -10756,15 +11281,15 @@
       </c>
       <c r="C48" t="str">
         <f>IF('Trade Routes'!C48:Q48&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B48,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B48,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_47","p_town_25"),</v>
       </c>
       <c r="D48" t="str">
         <f>IF('Trade Routes'!D48:R48&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B48,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C48,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_47","p_town_24"),</v>
       </c>
       <c r="E48" t="str">
         <f>IF('Trade Routes'!E48:S48&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B48,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D48,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_47","p_town_11"),</v>
       </c>
       <c r="F48" t="str">
         <f>IF('Trade Routes'!F48:T48&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B48,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E48,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10815,7 +11340,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
@@ -10824,11 +11349,11 @@
       </c>
       <c r="C49" t="str">
         <f>IF('Trade Routes'!C49:Q49&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B49,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B49,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_48","p_town_51"),</v>
       </c>
       <c r="D49" t="str">
         <f>IF('Trade Routes'!D49:R49&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B49,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C49,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_48","p_town_50"),</v>
       </c>
       <c r="E49" t="str">
         <f>IF('Trade Routes'!E49:S49&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B49,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D49,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10883,7 +11408,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>121</v>
       </c>
@@ -10892,7 +11417,7 @@
       </c>
       <c r="C50" t="str">
         <f>IF('Trade Routes'!C50:Q50&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B50,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B50,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_49","p_town_64"),</v>
       </c>
       <c r="D50" t="str">
         <f>IF('Trade Routes'!D50:R50&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B50,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C50,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -10951,7 +11476,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>122</v>
       </c>
@@ -10960,15 +11485,15 @@
       </c>
       <c r="C51" t="str">
         <f>IF('Trade Routes'!C51:Q51&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B51,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B51,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_50","p_town_51"),</v>
       </c>
       <c r="D51" t="str">
         <f>IF('Trade Routes'!D51:R51&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B51,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C51,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_50","p_town_70"),</v>
       </c>
       <c r="E51" t="str">
         <f>IF('Trade Routes'!E51:S51&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B51,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D51,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_50","p_town_66"),</v>
       </c>
       <c r="F51" t="str">
         <f>IF('Trade Routes'!F51:T51&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B51,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E51,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11019,7 +11544,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
@@ -11087,7 +11612,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -11096,43 +11621,43 @@
       </c>
       <c r="C53" t="str">
         <f>IF('Trade Routes'!C53:Q53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_53"),</v>
       </c>
       <c r="D53" t="str">
         <f>IF('Trade Routes'!D53:R53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_9"),</v>
       </c>
       <c r="E53" t="str">
         <f>IF('Trade Routes'!E53:S53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_7"),</v>
       </c>
       <c r="F53" t="str">
         <f>IF('Trade Routes'!F53:T53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_54"),</v>
       </c>
       <c r="G53" t="str">
         <f>IF('Trade Routes'!G53:U53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_21"),</v>
       </c>
       <c r="H53" t="str">
         <f>IF('Trade Routes'!H53:V53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_55"),</v>
       </c>
       <c r="I53" t="str">
         <f>IF('Trade Routes'!I53:W53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_56"),</v>
       </c>
       <c r="J53" t="str">
         <f>IF('Trade Routes'!J53:X53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_63"),</v>
       </c>
       <c r="K53" t="str">
         <f>IF('Trade Routes'!K53:Y53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_61"),</v>
       </c>
       <c r="L53" t="str">
         <f>IF('Trade Routes'!L53:Z53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!K53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_1"),</v>
       </c>
       <c r="M53" t="str">
         <f>IF('Trade Routes'!M53:AA53&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B53,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!L53,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11155,7 +11680,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
@@ -11164,15 +11689,15 @@
       </c>
       <c r="C54" t="str">
         <f>IF('Trade Routes'!C54:Q54&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B54,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B54,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_53","p_town_9"),</v>
       </c>
       <c r="D54" t="str">
         <f>IF('Trade Routes'!D54:R54&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B54,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C54,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_53","p_town_56"),</v>
       </c>
       <c r="E54" t="str">
         <f>IF('Trade Routes'!E54:S54&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B54,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D54,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_53","p_town_60"),</v>
       </c>
       <c r="F54" t="str">
         <f>IF('Trade Routes'!F54:T54&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B54,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E54,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11223,7 +11748,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
@@ -11232,15 +11757,15 @@
       </c>
       <c r="C55" t="str">
         <f>IF('Trade Routes'!C55:Q55&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B55,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B55,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_54","p_town_1"),</v>
       </c>
       <c r="D55" t="str">
         <f>IF('Trade Routes'!D55:R55&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B55,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C55,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_54","p_town_21"),</v>
       </c>
       <c r="E55" t="str">
         <f>IF('Trade Routes'!E55:S55&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B55,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D55,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_54","p_town_7"),</v>
       </c>
       <c r="F55" t="str">
         <f>IF('Trade Routes'!F55:T55&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B55,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E55,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11291,7 +11816,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
@@ -11300,19 +11825,19 @@
       </c>
       <c r="C56" t="str">
         <f>IF('Trade Routes'!C56:Q56&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B56,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B56,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_54"),</v>
       </c>
       <c r="D56" t="str">
         <f>IF('Trade Routes'!D56:R56&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B56,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C56,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_22"),</v>
       </c>
       <c r="E56" t="str">
         <f>IF('Trade Routes'!E56:S56&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B56,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D56,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_21"),</v>
       </c>
       <c r="F56" t="str">
         <f>IF('Trade Routes'!F56:T56&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B56,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E56,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_56"),</v>
       </c>
       <c r="G56" t="str">
         <f>IF('Trade Routes'!G56:U56&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B56,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F56,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11359,7 +11884,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
@@ -11368,19 +11893,19 @@
       </c>
       <c r="C57" t="str">
         <f>IF('Trade Routes'!C57:Q57&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B57,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B57,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_63"),</v>
       </c>
       <c r="D57" t="str">
         <f>IF('Trade Routes'!D57:R57&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B57,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C57,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_57"),</v>
       </c>
       <c r="E57" t="str">
         <f>IF('Trade Routes'!E57:S57&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B57,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D57,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_65"),</v>
       </c>
       <c r="F57" t="str">
         <f>IF('Trade Routes'!F57:T57&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B57,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E57,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_64"),</v>
       </c>
       <c r="G57" t="str">
         <f>IF('Trade Routes'!G57:U57&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B57,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F57,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11427,7 +11952,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
@@ -11436,23 +11961,23 @@
       </c>
       <c r="C58" t="str">
         <f>IF('Trade Routes'!C58:Q58&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B58,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B58,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_64"),</v>
       </c>
       <c r="D58" t="str">
         <f>IF('Trade Routes'!D58:R58&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B58,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C58,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_65"),</v>
       </c>
       <c r="E58" t="str">
         <f>IF('Trade Routes'!E58:S58&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B58,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D58,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_63"),</v>
       </c>
       <c r="F58" t="str">
         <f>IF('Trade Routes'!F58:T58&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B58,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E58,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_32"),</v>
       </c>
       <c r="G58" t="str">
         <f>IF('Trade Routes'!G58:U58&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B58,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F58,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_37"),</v>
       </c>
       <c r="H58" t="str">
         <f>IF('Trade Routes'!H58:V58&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B58,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G58,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11495,7 +12020,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>130</v>
       </c>
@@ -11504,35 +12029,35 @@
       </c>
       <c r="C59" t="str">
         <f>IF('Trade Routes'!C59:Q59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_60"),</v>
       </c>
       <c r="D59" t="str">
         <f>IF('Trade Routes'!D59:R59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_59"),</v>
       </c>
       <c r="E59" t="str">
         <f>IF('Trade Routes'!E59:S59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_20"),</v>
       </c>
       <c r="F59" t="str">
         <f>IF('Trade Routes'!F59:T59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_65"),</v>
       </c>
       <c r="G59" t="str">
         <f>IF('Trade Routes'!G59:U59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_64"),</v>
       </c>
       <c r="H59" t="str">
         <f>IF('Trade Routes'!H59:V59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_37"),</v>
       </c>
       <c r="I59" t="str">
         <f>IF('Trade Routes'!I59:W59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_61"),</v>
       </c>
       <c r="J59" t="str">
         <f>IF('Trade Routes'!J59:X59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_52"),</v>
       </c>
       <c r="K59" t="str">
         <f>IF('Trade Routes'!K59:Y59&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B59,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J59,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11563,7 +12088,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>131</v>
       </c>
@@ -11572,11 +12097,11 @@
       </c>
       <c r="C60" t="str">
         <f>IF('Trade Routes'!C60:Q60&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B60,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B60,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_59","p_town_20"),</v>
       </c>
       <c r="D60" t="str">
         <f>IF('Trade Routes'!D60:R60&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B60,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C60,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_59","p_town_63"),</v>
       </c>
       <c r="E60" t="str">
         <f>IF('Trade Routes'!E60:S60&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B60,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D60,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11631,7 +12156,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
@@ -11640,27 +12165,27 @@
       </c>
       <c r="C61" t="str">
         <f>IF('Trade Routes'!C61:Q61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_63"),</v>
       </c>
       <c r="D61" t="str">
         <f>IF('Trade Routes'!D61:R61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_56"),</v>
       </c>
       <c r="E61" t="str">
         <f>IF('Trade Routes'!E61:S61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_52"),</v>
       </c>
       <c r="F61" t="str">
         <f>IF('Trade Routes'!F61:T61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_53"),</v>
       </c>
       <c r="G61" t="str">
         <f>IF('Trade Routes'!G61:U61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_61"),</v>
       </c>
       <c r="H61" t="str">
         <f>IF('Trade Routes'!H61:V61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_42"),</v>
       </c>
       <c r="I61" t="str">
         <f>IF('Trade Routes'!I61:W61&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B61,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H61,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11699,7 +12224,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
@@ -11708,19 +12233,19 @@
       </c>
       <c r="C62" t="str">
         <f>IF('Trade Routes'!C62:Q62&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B62,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B62,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_64"),</v>
       </c>
       <c r="D62" t="str">
         <f>IF('Trade Routes'!D62:R62&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B62,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C62,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_30"),</v>
       </c>
       <c r="E62" t="str">
         <f>IF('Trade Routes'!E62:S62&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B62,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D62,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_37"),</v>
       </c>
       <c r="F62" t="str">
         <f>IF('Trade Routes'!F62:T62&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B62,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E62,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_39"),</v>
       </c>
       <c r="G62" t="str">
         <f>IF('Trade Routes'!G62:U62&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B62,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F62,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11767,7 +12292,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
@@ -11776,19 +12301,19 @@
       </c>
       <c r="C63" t="str">
         <f>IF('Trade Routes'!C63:Q63&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B63,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B63,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_63"),</v>
       </c>
       <c r="D63" t="str">
         <f>IF('Trade Routes'!D63:R63&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B63,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C63,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_56"),</v>
       </c>
       <c r="E63" t="str">
         <f>IF('Trade Routes'!E63:S63&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B63,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D63,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_52"),</v>
       </c>
       <c r="F63" t="str">
         <f>IF('Trade Routes'!F63:T63&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B63,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E63,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_53"),</v>
       </c>
       <c r="G63" t="str">
         <f>IF('Trade Routes'!G63:U63&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B63,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F63,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11835,7 +12360,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -11844,11 +12369,11 @@
       </c>
       <c r="C64" t="str">
         <f>IF('Trade Routes'!C64:Q64&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B64,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B64,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_63","p_town_20"),</v>
       </c>
       <c r="D64" t="str">
         <f>IF('Trade Routes'!D64:R64&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B64,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C64,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_63","p_town_30"),</v>
       </c>
       <c r="E64" t="str">
         <f>IF('Trade Routes'!E64:S64&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B64,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D64,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11903,7 +12428,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
@@ -11912,11 +12437,11 @@
       </c>
       <c r="C65" t="str">
         <f>IF('Trade Routes'!C65:Q65&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B65,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B65,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_64","p_town_30"),</v>
       </c>
       <c r="D65" t="str">
         <f>IF('Trade Routes'!D65:R65&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B65,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C65,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_64","p_town_37"),</v>
       </c>
       <c r="E65" t="str">
         <f>IF('Trade Routes'!E65:S65&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B65,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D65,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -11971,7 +12496,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
@@ -11980,11 +12505,11 @@
       </c>
       <c r="C66" t="str">
         <f>IF('Trade Routes'!C66:Q66&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B66,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B66,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_65","p_town_20"),</v>
       </c>
       <c r="D66" t="str">
         <f>IF('Trade Routes'!D66:R66&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B66,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C66,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_65","p_town_64"),</v>
       </c>
       <c r="E66" t="str">
         <f>IF('Trade Routes'!E66:S66&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B66,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D66,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12039,7 +12564,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>138</v>
       </c>
@@ -12048,35 +12573,35 @@
       </c>
       <c r="C67" t="str">
         <f>IF('Trade Routes'!C67:Q67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_70"),</v>
       </c>
       <c r="D67" t="str">
         <f>IF('Trade Routes'!D67:R67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_73"),</v>
       </c>
       <c r="E67" t="str">
         <f>IF('Trade Routes'!E67:S67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_68"),</v>
       </c>
       <c r="F67" t="str">
         <f>IF('Trade Routes'!F67:T67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_67"),</v>
       </c>
       <c r="G67" t="str">
         <f>IF('Trade Routes'!G67:U67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_28"),</v>
       </c>
       <c r="H67" t="str">
         <f>IF('Trade Routes'!H67:V67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_72"),</v>
       </c>
       <c r="I67" t="str">
         <f>IF('Trade Routes'!I67:W67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_37"),</v>
       </c>
       <c r="J67" t="str">
         <f>IF('Trade Routes'!J67:X67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_30"),</v>
       </c>
       <c r="K67" t="str">
         <f>IF('Trade Routes'!K67:Y67&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B67,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J67,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12107,7 +12632,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>139</v>
       </c>
@@ -12116,35 +12641,35 @@
       </c>
       <c r="C68" t="str">
         <f>IF('Trade Routes'!C68:Q68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_28"),</v>
       </c>
       <c r="D68" t="str">
         <f>IF('Trade Routes'!D68:R68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_68"),</v>
       </c>
       <c r="E68" t="str">
         <f>IF('Trade Routes'!E68:S68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_73"),</v>
       </c>
       <c r="F68" t="str">
         <f>IF('Trade Routes'!F68:T68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_69"),</v>
       </c>
       <c r="G68" t="str">
         <f>IF('Trade Routes'!G68:U68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_70"),</v>
       </c>
       <c r="H68" t="str">
         <f>IF('Trade Routes'!H68:V68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!G68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_1"),</v>
       </c>
       <c r="I68" t="str">
         <f>IF('Trade Routes'!I68:W68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!H68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_37"),</v>
       </c>
       <c r="J68" t="str">
         <f>IF('Trade Routes'!J68:X68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!I68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_30"),</v>
       </c>
       <c r="K68" t="str">
         <f>IF('Trade Routes'!K68:Y68&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B68,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!J68,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12175,7 +12700,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
@@ -12184,19 +12709,19 @@
       </c>
       <c r="C69" t="str">
         <f>IF('Trade Routes'!C69:Q69&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B69,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B69,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_73"),</v>
       </c>
       <c r="D69" t="str">
         <f>IF('Trade Routes'!D69:R69&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B69,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C69,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_69"),</v>
       </c>
       <c r="E69" t="str">
         <f>IF('Trade Routes'!E69:S69&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B69,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D69,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_70"),</v>
       </c>
       <c r="F69" t="str">
         <f>IF('Trade Routes'!F69:T69&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B69,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E69,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_71"),</v>
       </c>
       <c r="G69" t="str">
         <f>IF('Trade Routes'!G69:U69&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B69,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!F69,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12243,7 +12768,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>141</v>
       </c>
@@ -12252,15 +12777,15 @@
       </c>
       <c r="C70" t="str">
         <f>IF('Trade Routes'!C70:Q70&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B70,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B70,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_69","p_town_73"),</v>
       </c>
       <c r="D70" t="str">
         <f>IF('Trade Routes'!D70:R70&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B70,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C70,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_69","p_town_70"),</v>
       </c>
       <c r="E70" t="str">
         <f>IF('Trade Routes'!E70:S70&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B70,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D70,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_69","p_town_72"),</v>
       </c>
       <c r="F70" t="str">
         <f>IF('Trade Routes'!F70:T70&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B70,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!E70,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12311,7 +12836,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
@@ -12320,11 +12845,11 @@
       </c>
       <c r="C71" t="str">
         <f>IF('Trade Routes'!C71:Q71&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B71,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B71,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_70","p_town_71"),</v>
       </c>
       <c r="D71" t="str">
         <f>IF('Trade Routes'!D71:R71&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B71,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C71,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_70","p_town_73"),</v>
       </c>
       <c r="E71" t="str">
         <f>IF('Trade Routes'!E71:S71&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B71,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!D71,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12379,7 +12904,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
@@ -12388,7 +12913,7 @@
       </c>
       <c r="C72" t="str">
         <f>IF('Trade Routes'!C72:Q72&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B72,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B72,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_71","p_town_72"),</v>
       </c>
       <c r="D72" t="str">
         <f>IF('Trade Routes'!D72:R72&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B72,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C72,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12447,7 +12972,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -12456,7 +12981,7 @@
       </c>
       <c r="C73" t="str">
         <f>IF('Trade Routes'!C73:Q73&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B73,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B73,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_72","p_town_67"),</v>
       </c>
       <c r="D73" t="str">
         <f>IF('Trade Routes'!D73:R73&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B73,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C73,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12515,7 +13040,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>145</v>
       </c>
@@ -12524,7 +13049,7 @@
       </c>
       <c r="C74" t="str">
         <f>IF('Trade Routes'!C74:Q74&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B74,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!B74,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_73","p_town_72"),</v>
       </c>
       <c r="D74" t="str">
         <f>IF('Trade Routes'!D74:R74&lt;&gt;"",_xlfn.CONCAT(variables!$A$1,variables!$A$2,'Trade Routes'!$B74,variables!$A$2,variables!$A$6,variables!$A$2,Renamer!C74,variables!$A$4,variables!$A$5,variables!$A$6),"")</f>
@@ -12593,87 +13118,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474F8BD8-735D-45CC-8A40-ED68C19C5990}">
   <dimension ref="A1:BV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="6" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.90625" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="7" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -12897,291 +13422,291 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="str">
         <f t="array" ref="B2:BV16">TRANSPOSE(Code!C2:Q74)</f>
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_21"),</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_2","p_town_22"),</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_21"),</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_27"),</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_19"),</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_7"),</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_7","p_town_9"),</v>
       </c>
       <c r="I2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_10"),</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_9","p_town_18"),</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_27"),</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_12"),</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_12","p_town_13"),</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_13","p_town_15"),</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_14","p_town_15"),</v>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_8"),</v>
       </c>
       <c r="Q2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_16","p_town_29"),</v>
       </c>
       <c r="R2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_18"),</v>
       </c>
       <c r="S2" t="str">
         <v/>
       </c>
       <c r="T2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_19","p_town_28"),</v>
       </c>
       <c r="U2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_20","p_town_22"),</v>
       </c>
       <c r="V2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_21","p_town_22"),</v>
       </c>
       <c r="W2" t="str">
         <v/>
       </c>
       <c r="X2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_23","p_town_14"),</v>
       </c>
       <c r="Y2" t="str">
         <v/>
       </c>
       <c r="Z2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_25","p_town_27"),</v>
       </c>
       <c r="AA2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_27"),</v>
       </c>
       <c r="AB2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_27","p_town_6"),</v>
       </c>
       <c r="AC2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_28","p_town_67"),</v>
       </c>
       <c r="AD2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_29","p_town_17"),</v>
       </c>
       <c r="AE2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_32"),</v>
       </c>
       <c r="AF2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_35"),</v>
       </c>
       <c r="AG2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_63"),</v>
       </c>
       <c r="AH2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_50"),</v>
       </c>
       <c r="AI2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_43"),</v>
       </c>
       <c r="AJ2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_47"),</v>
       </c>
       <c r="AK2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_36","p_town_37"),</v>
       </c>
       <c r="AL2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_42"),</v>
       </c>
       <c r="AM2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_44"),</v>
       </c>
       <c r="AN2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_39","p_town_49"),</v>
       </c>
       <c r="AO2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_40","p_town_41"),</v>
       </c>
       <c r="AP2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_41","p_town_51"),</v>
       </c>
       <c r="AQ2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_58"),</v>
       </c>
       <c r="AR2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_43","p_town_37"),</v>
       </c>
       <c r="AS2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_44","p_town_50"),</v>
       </c>
       <c r="AT2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_45","p_town_46"),</v>
       </c>
       <c r="AU2" t="str">
         <v/>
       </c>
       <c r="AV2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_47","p_town_25"),</v>
       </c>
       <c r="AW2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_48","p_town_51"),</v>
       </c>
       <c r="AX2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_49","p_town_64"),</v>
       </c>
       <c r="AY2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_50","p_town_51"),</v>
       </c>
       <c r="AZ2" t="str">
         <v/>
       </c>
       <c r="BA2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_53"),</v>
       </c>
       <c r="BB2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_53","p_town_9"),</v>
       </c>
       <c r="BC2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_54","p_town_1"),</v>
       </c>
       <c r="BD2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_54"),</v>
       </c>
       <c r="BE2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_63"),</v>
       </c>
       <c r="BF2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_64"),</v>
       </c>
       <c r="BG2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_60"),</v>
       </c>
       <c r="BH2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_59","p_town_20"),</v>
       </c>
       <c r="BI2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_63"),</v>
       </c>
       <c r="BJ2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_64"),</v>
       </c>
       <c r="BK2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_63"),</v>
       </c>
       <c r="BL2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_63","p_town_20"),</v>
       </c>
       <c r="BM2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_64","p_town_30"),</v>
       </c>
       <c r="BN2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_65","p_town_20"),</v>
       </c>
       <c r="BO2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_70"),</v>
       </c>
       <c r="BP2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_28"),</v>
       </c>
       <c r="BQ2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_73"),</v>
       </c>
       <c r="BR2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_69","p_town_73"),</v>
       </c>
       <c r="BS2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_70","p_town_71"),</v>
       </c>
       <c r="BT2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_71","p_town_72"),</v>
       </c>
       <c r="BU2" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_72","p_town_67"),</v>
       </c>
       <c r="BV2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_73","p_town_72"),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_2"),</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_2","p_town_21"),</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_6"),</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_25"),</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_4"),</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_10"),</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_7","p_town_10"),</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_12"),</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_9","p_town_1"),</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_9"),</v>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_15"),</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_12","p_town_15"),</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_13","p_town_14"),</v>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_14","p_town_16"),</v>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_16"),</v>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_16","p_town_12"),</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_12"),</v>
       </c>
       <c r="S3" t="str">
         <v/>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_19","p_town_67"),</v>
       </c>
       <c r="U3" t="str">
         <v/>
@@ -13193,16 +13718,16 @@
         <v/>
       </c>
       <c r="X3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_23","p_town_13"),</v>
       </c>
       <c r="Y3" t="str">
         <v/>
       </c>
       <c r="Z3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_25","p_town_24"),</v>
       </c>
       <c r="AA3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_25"),</v>
       </c>
       <c r="AB3" t="str">
         <v/>
@@ -13214,127 +13739,127 @@
         <v/>
       </c>
       <c r="AE3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_36"),</v>
       </c>
       <c r="AF3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_45"),</v>
       </c>
       <c r="AG3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_56"),</v>
       </c>
       <c r="AH3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_44"),</v>
       </c>
       <c r="AI3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_36"),</v>
       </c>
       <c r="AJ3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_23"),</v>
       </c>
       <c r="AK3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_36","p_town_43"),</v>
       </c>
       <c r="AL3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_44"),</v>
       </c>
       <c r="AM3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_50"),</v>
       </c>
       <c r="AN3" t="str">
         <v/>
       </c>
       <c r="AO3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_40","p_town_51"),</v>
       </c>
       <c r="AP3" t="str">
         <v/>
       </c>
       <c r="AQ3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_59"),</v>
       </c>
       <c r="AR3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_43","p_town_44"),</v>
       </c>
       <c r="AS3" t="str">
         <v/>
       </c>
       <c r="AT3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_45","p_town_23"),</v>
       </c>
       <c r="AU3" t="str">
         <v/>
       </c>
       <c r="AV3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_47","p_town_24"),</v>
       </c>
       <c r="AW3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_48","p_town_50"),</v>
       </c>
       <c r="AX3" t="str">
         <v/>
       </c>
       <c r="AY3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_50","p_town_70"),</v>
       </c>
       <c r="AZ3" t="str">
         <v/>
       </c>
       <c r="BA3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_9"),</v>
       </c>
       <c r="BB3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_53","p_town_56"),</v>
       </c>
       <c r="BC3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_54","p_town_21"),</v>
       </c>
       <c r="BD3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_22"),</v>
       </c>
       <c r="BE3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_57"),</v>
       </c>
       <c r="BF3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_65"),</v>
       </c>
       <c r="BG3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_59"),</v>
       </c>
       <c r="BH3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_59","p_town_63"),</v>
       </c>
       <c r="BI3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_56"),</v>
       </c>
       <c r="BJ3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_30"),</v>
       </c>
       <c r="BK3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_56"),</v>
       </c>
       <c r="BL3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_63","p_town_30"),</v>
       </c>
       <c r="BM3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_64","p_town_37"),</v>
       </c>
       <c r="BN3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_65","p_town_64"),</v>
       </c>
       <c r="BO3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_73"),</v>
       </c>
       <c r="BP3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_68"),</v>
       </c>
       <c r="BQ3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_69"),</v>
       </c>
       <c r="BR3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_69","p_town_70"),</v>
       </c>
       <c r="BS3" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_70","p_town_73"),</v>
       </c>
       <c r="BT3" t="str">
         <v/>
@@ -13346,66 +13871,66 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_3"),</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_2","p_town_3"),</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_4"),</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_26"),</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_27"),</v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_8"),</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_7","p_town_21"),</v>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_11"),</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_15"),</v>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_13"),</v>
       </c>
       <c r="M4" t="str">
         <v/>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_13","p_town_24"),</v>
       </c>
       <c r="O4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_14","p_town_29"),</v>
       </c>
       <c r="P4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_29"),</v>
       </c>
       <c r="Q4" t="str">
         <v/>
       </c>
       <c r="R4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_15"),</v>
       </c>
       <c r="S4" t="str">
         <v/>
       </c>
       <c r="T4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_19","p_town_5"),</v>
       </c>
       <c r="U4" t="str">
         <v/>
@@ -13426,7 +13951,7 @@
         <v/>
       </c>
       <c r="AA4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_24"),</v>
       </c>
       <c r="AB4" t="str">
         <v/>
@@ -13438,43 +13963,43 @@
         <v/>
       </c>
       <c r="AE4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_43"),</v>
       </c>
       <c r="AF4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_46"),</v>
       </c>
       <c r="AG4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_55"),</v>
       </c>
       <c r="AH4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_43"),</v>
       </c>
       <c r="AI4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_2"),</v>
       </c>
       <c r="AJ4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_45"),</v>
       </c>
       <c r="AK4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_36","p_town_2"),</v>
       </c>
       <c r="AL4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_38"),</v>
       </c>
       <c r="AM4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_48"),</v>
       </c>
       <c r="AN4" t="str">
         <v/>
       </c>
       <c r="AO4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_40","p_town_48"),</v>
       </c>
       <c r="AP4" t="str">
         <v/>
       </c>
       <c r="AQ4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_20"),</v>
       </c>
       <c r="AR4" t="str">
         <v/>
@@ -13489,7 +14014,7 @@
         <v/>
       </c>
       <c r="AV4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_47","p_town_11"),</v>
       </c>
       <c r="AW4" t="str">
         <v/>
@@ -13498,43 +14023,43 @@
         <v/>
       </c>
       <c r="AY4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_50","p_town_66"),</v>
       </c>
       <c r="AZ4" t="str">
         <v/>
       </c>
       <c r="BA4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_7"),</v>
       </c>
       <c r="BB4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_53","p_town_60"),</v>
       </c>
       <c r="BC4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_54","p_town_7"),</v>
       </c>
       <c r="BD4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_21"),</v>
       </c>
       <c r="BE4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_65"),</v>
       </c>
       <c r="BF4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_63"),</v>
       </c>
       <c r="BG4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_20"),</v>
       </c>
       <c r="BH4" t="str">
         <v/>
       </c>
       <c r="BI4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_52"),</v>
       </c>
       <c r="BJ4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_37"),</v>
       </c>
       <c r="BK4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_52"),</v>
       </c>
       <c r="BL4" t="str">
         <v/>
@@ -13546,16 +14071,16 @@
         <v/>
       </c>
       <c r="BO4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_68"),</v>
       </c>
       <c r="BP4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_73"),</v>
       </c>
       <c r="BQ4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_70"),</v>
       </c>
       <c r="BR4" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_69","p_town_72"),</v>
       </c>
       <c r="BS4" t="str">
         <v/>
@@ -13570,42 +14095,42 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_19"),</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_19"),</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_5"),</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_26"),</v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_25"),</v>
       </c>
       <c r="H5" t="str">
         <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_24"),</v>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_10","p_town_52"),</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_11","p_town_24"),</v>
       </c>
       <c r="M5" t="str">
         <v/>
@@ -13617,13 +14142,13 @@
         <v/>
       </c>
       <c r="P5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_15","p_town_35"),</v>
       </c>
       <c r="Q5" t="str">
         <v/>
       </c>
       <c r="R5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_17","p_town_16"),</v>
       </c>
       <c r="S5" t="str">
         <v/>
@@ -13650,7 +14175,7 @@
         <v/>
       </c>
       <c r="AA5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_26","p_town_5"),</v>
       </c>
       <c r="AB5" t="str">
         <v/>
@@ -13662,31 +14187,31 @@
         <v/>
       </c>
       <c r="AE5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_44"),</v>
       </c>
       <c r="AF5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_31","p_town_14"),</v>
       </c>
       <c r="AG5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_22"),</v>
       </c>
       <c r="AH5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_34"),</v>
       </c>
       <c r="AI5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_3"),</v>
       </c>
       <c r="AJ5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_46"),</v>
       </c>
       <c r="AK5" t="str">
         <v/>
       </c>
       <c r="AL5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_39"),</v>
       </c>
       <c r="AM5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_38","p_town_41"),</v>
       </c>
       <c r="AN5" t="str">
         <v/>
@@ -13698,7 +14223,7 @@
         <v/>
       </c>
       <c r="AQ5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_65"),</v>
       </c>
       <c r="AR5" t="str">
         <v/>
@@ -13728,7 +14253,7 @@
         <v/>
       </c>
       <c r="BA5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_54"),</v>
       </c>
       <c r="BB5" t="str">
         <v/>
@@ -13737,28 +14262,28 @@
         <v/>
       </c>
       <c r="BD5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_55","p_town_56"),</v>
       </c>
       <c r="BE5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_56","p_town_64"),</v>
       </c>
       <c r="BF5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_32"),</v>
       </c>
       <c r="BG5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_65"),</v>
       </c>
       <c r="BH5" t="str">
         <v/>
       </c>
       <c r="BI5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_53"),</v>
       </c>
       <c r="BJ5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_61","p_town_39"),</v>
       </c>
       <c r="BK5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_62","p_town_53"),</v>
       </c>
       <c r="BL5" t="str">
         <v/>
@@ -13770,13 +14295,13 @@
         <v/>
       </c>
       <c r="BO5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_67"),</v>
       </c>
       <c r="BP5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_69"),</v>
       </c>
       <c r="BQ5" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_68","p_town_71"),</v>
       </c>
       <c r="BR5" t="str">
         <v/>
@@ -13794,33 +14319,33 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_4"),</v>
       </c>
       <c r="C6" t="str">
         <v/>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_3","p_town_28"),</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_4","p_town_19"),</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_5","p_town_67"),</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_6","p_town_27"),</v>
       </c>
       <c r="H6" t="str">
         <v/>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_8","p_town_25"),</v>
       </c>
       <c r="J6" t="str">
         <v/>
@@ -13886,28 +14411,28 @@
         <v/>
       </c>
       <c r="AE6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_37"),</v>
       </c>
       <c r="AF6" t="str">
         <v/>
       </c>
       <c r="AG6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_21"),</v>
       </c>
       <c r="AH6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_3"),</v>
       </c>
       <c r="AI6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_34","p_town_28"),</v>
       </c>
       <c r="AJ6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_1"),</v>
       </c>
       <c r="AK6" t="str">
         <v/>
       </c>
       <c r="AL6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_37","p_town_49"),</v>
       </c>
       <c r="AM6" t="str">
         <v/>
@@ -13922,7 +14447,7 @@
         <v/>
       </c>
       <c r="AQ6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_64"),</v>
       </c>
       <c r="AR6" t="str">
         <v/>
@@ -13952,7 +14477,7 @@
         <v/>
       </c>
       <c r="BA6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_21"),</v>
       </c>
       <c r="BB6" t="str">
         <v/>
@@ -13967,16 +14492,16 @@
         <v/>
       </c>
       <c r="BF6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_57","p_town_37"),</v>
       </c>
       <c r="BG6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_64"),</v>
       </c>
       <c r="BH6" t="str">
         <v/>
       </c>
       <c r="BI6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_61"),</v>
       </c>
       <c r="BJ6" t="str">
         <v/>
@@ -13994,10 +14519,10 @@
         <v/>
       </c>
       <c r="BO6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_28"),</v>
       </c>
       <c r="BP6" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_70"),</v>
       </c>
       <c r="BQ6" t="str">
         <v/>
@@ -14018,12 +14543,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_27"),</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -14110,22 +14635,22 @@
         <v/>
       </c>
       <c r="AE7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_42"),</v>
       </c>
       <c r="AF7" t="str">
         <v/>
       </c>
       <c r="AG7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_2"),</v>
       </c>
       <c r="AH7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_28"),</v>
       </c>
       <c r="AI7" t="str">
         <v/>
       </c>
       <c r="AJ7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_35","p_town_67"),</v>
       </c>
       <c r="AK7" t="str">
         <v/>
@@ -14146,7 +14671,7 @@
         <v/>
       </c>
       <c r="AQ7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_49"),</v>
       </c>
       <c r="AR7" t="str">
         <v/>
@@ -14176,7 +14701,7 @@
         <v/>
       </c>
       <c r="BA7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_55"),</v>
       </c>
       <c r="BB7" t="str">
         <v/>
@@ -14194,13 +14719,13 @@
         <v/>
       </c>
       <c r="BG7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_37"),</v>
       </c>
       <c r="BH7" t="str">
         <v/>
       </c>
       <c r="BI7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_60","p_town_42"),</v>
       </c>
       <c r="BJ7" t="str">
         <v/>
@@ -14218,10 +14743,10 @@
         <v/>
       </c>
       <c r="BO7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_72"),</v>
       </c>
       <c r="BP7" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_1"),</v>
       </c>
       <c r="BQ7" t="str">
         <v/>
@@ -14242,12 +14767,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_6"),</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -14334,16 +14859,16 @@
         <v/>
       </c>
       <c r="AE8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_57"),</v>
       </c>
       <c r="AF8" t="str">
         <v/>
       </c>
       <c r="AG8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_32","p_town_36"),</v>
       </c>
       <c r="AH8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_67"),</v>
       </c>
       <c r="AI8" t="str">
         <v/>
@@ -14370,7 +14895,7 @@
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_42","p_town_61"),</v>
       </c>
       <c r="AR8" t="str">
         <v/>
@@ -14400,7 +14925,7 @@
         <v/>
       </c>
       <c r="BA8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_56"),</v>
       </c>
       <c r="BB8" t="str">
         <v/>
@@ -14418,7 +14943,7 @@
         <v/>
       </c>
       <c r="BG8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_61"),</v>
       </c>
       <c r="BH8" t="str">
         <v/>
@@ -14442,10 +14967,10 @@
         <v/>
       </c>
       <c r="BO8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_37"),</v>
       </c>
       <c r="BP8" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_37"),</v>
       </c>
       <c r="BQ8" t="str">
         <v/>
@@ -14466,12 +14991,12 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_7"),</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -14558,7 +15083,7 @@
         <v/>
       </c>
       <c r="AE9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_1"),</v>
       </c>
       <c r="AF9" t="str">
         <v/>
@@ -14567,7 +15092,7 @@
         <v/>
       </c>
       <c r="AH9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_68"),</v>
       </c>
       <c r="AI9" t="str">
         <v/>
@@ -14624,7 +15149,7 @@
         <v/>
       </c>
       <c r="BA9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_63"),</v>
       </c>
       <c r="BB9" t="str">
         <v/>
@@ -14642,7 +15167,7 @@
         <v/>
       </c>
       <c r="BG9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_58","p_town_52"),</v>
       </c>
       <c r="BH9" t="str">
         <v/>
@@ -14666,10 +15191,10 @@
         <v/>
       </c>
       <c r="BO9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_66","p_town_30"),</v>
       </c>
       <c r="BP9" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_67","p_town_30"),</v>
       </c>
       <c r="BQ9" t="str">
         <v/>
@@ -14690,12 +15215,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_1","p_town_15"),</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -14782,7 +15307,7 @@
         <v/>
       </c>
       <c r="AE10" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_30","p_town_52"),</v>
       </c>
       <c r="AF10" t="str">
         <v/>
@@ -14791,7 +15316,7 @@
         <v/>
       </c>
       <c r="AH10" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_33","p_town_66"),</v>
       </c>
       <c r="AI10" t="str">
         <v/>
@@ -14848,7 +15373,7 @@
         <v/>
       </c>
       <c r="BA10" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_61"),</v>
       </c>
       <c r="BB10" t="str">
         <v/>
@@ -14914,7 +15439,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -15072,7 +15597,7 @@
         <v/>
       </c>
       <c r="BA11" t="str">
-        <v/>
+        <v>(call_script, "script_set_trade_route_between_centers","p_town_52","p_town_1"),</v>
       </c>
       <c r="BB11" t="str">
         <v/>
@@ -15138,7 +15663,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -15362,7 +15887,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -15586,7 +16111,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -15810,7 +16335,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -16034,7 +16559,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -16272,34 +16797,34 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>165</v>
       </c>
